--- a/BLACK_SUNRISE_YCbCr/90_Degree_GLCM/R_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/90_Degree_GLCM/R_resmat.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,12 +45,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +335,5619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>0.15979977837649922</v>
+      </c>
+      <c r="B1">
+        <v>0.86126227753615303</v>
+      </c>
+      <c r="C1">
+        <v>0.28822468040264893</v>
+      </c>
+      <c r="D1">
+        <v>0.92113376535430791</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0.039185964912280699</v>
+      </c>
+      <c r="B2">
+        <v>0.93332996426503945</v>
+      </c>
+      <c r="C2">
+        <v>0.59178311935980288</v>
+      </c>
+      <c r="D2">
+        <v>0.98040701754385962</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.085551597430647108</v>
+      </c>
+      <c r="B3">
+        <v>0.88502006299325076</v>
+      </c>
+      <c r="C3">
+        <v>0.53453020966976372</v>
+      </c>
+      <c r="D3">
+        <v>0.95762537048984131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.086217407381497288</v>
+      </c>
+      <c r="B4">
+        <v>0.87361382919442931</v>
+      </c>
+      <c r="C4">
+        <v>0.55477910467149583</v>
+      </c>
+      <c r="D4">
+        <v>0.95738037297248679</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.082371804477477745</v>
+      </c>
+      <c r="B5">
+        <v>0.91425507250178739</v>
+      </c>
+      <c r="C5">
+        <v>0.48076090078122707</v>
+      </c>
+      <c r="D5">
+        <v>0.95903720575552032</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.1004029870700357</v>
+      </c>
+      <c r="B6">
+        <v>0.8873090930769344</v>
+      </c>
+      <c r="C6">
+        <v>0.5031743498923924</v>
+      </c>
+      <c r="D6">
+        <v>0.95064920389363194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.06794679342840465</v>
+      </c>
+      <c r="B7">
+        <v>0.92165994585677302</v>
+      </c>
+      <c r="C7">
+        <v>0.49397389199688552</v>
+      </c>
+      <c r="D7">
+        <v>0.96609764422082001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.047053402005963668</v>
+      </c>
+      <c r="B8">
+        <v>0.93273866488324619</v>
+      </c>
+      <c r="C8">
+        <v>0.58352672257738247</v>
+      </c>
+      <c r="D8">
+        <v>0.97647329899701796</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.13639130194212359</v>
+      </c>
+      <c r="B9">
+        <v>0.84694689376180476</v>
+      </c>
+      <c r="C9">
+        <v>0.49218891526528818</v>
+      </c>
+      <c r="D9">
+        <v>0.93607296335233026</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.10680366792205664</v>
+      </c>
+      <c r="B10">
+        <v>0.89795988641419922</v>
+      </c>
+      <c r="C10">
+        <v>0.44876202670197107</v>
+      </c>
+      <c r="D10">
+        <v>0.94720584757018367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.093759667440061867</v>
+      </c>
+      <c r="B11">
+        <v>0.86452950252126781</v>
+      </c>
+      <c r="C11">
+        <v>0.56185287110446258</v>
+      </c>
+      <c r="D11">
+        <v>0.95433061033771593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.10867007104795735</v>
+      </c>
+      <c r="B12">
+        <v>0.87215654612048243</v>
+      </c>
+      <c r="C12">
+        <v>0.49770265347136178</v>
+      </c>
+      <c r="D12">
+        <v>0.94680561722912959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.050265078755282362</v>
+      </c>
+      <c r="B13">
+        <v>0.91370239214666404</v>
+      </c>
+      <c r="C13">
+        <v>0.61020250094124373</v>
+      </c>
+      <c r="D13">
+        <v>0.97487770521193495</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.069725119513255093</v>
+      </c>
+      <c r="B14">
+        <v>0.8973072887077006</v>
+      </c>
+      <c r="C14">
+        <v>0.56888999733955625</v>
+      </c>
+      <c r="D14">
+        <v>0.9653265689635746</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.084286592202863553</v>
+      </c>
+      <c r="B15">
+        <v>0.86823640899792132</v>
+      </c>
+      <c r="C15">
+        <v>0.57000309684713801</v>
+      </c>
+      <c r="D15">
+        <v>0.95829874288425032</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.063085539714867606</v>
+      </c>
+      <c r="B16">
+        <v>0.9064713033497539</v>
+      </c>
+      <c r="C16">
+        <v>0.54845293452175592</v>
+      </c>
+      <c r="D16">
+        <v>0.96852511880515935</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.050414329260483108</v>
+      </c>
+      <c r="B17">
+        <v>0.89963524320500843</v>
+      </c>
+      <c r="C17">
+        <v>0.63891268139349955</v>
+      </c>
+      <c r="D17">
+        <v>0.97486541236541235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.05567094482323956</v>
+      </c>
+      <c r="B18">
+        <v>0.89953511110316997</v>
+      </c>
+      <c r="C18">
+        <v>0.63346521117855259</v>
+      </c>
+      <c r="D18">
+        <v>0.97222819063261978</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.087506871907641559</v>
+      </c>
+      <c r="B19">
+        <v>0.85794697678115106</v>
+      </c>
+      <c r="C19">
+        <v>0.57024708201952334</v>
+      </c>
+      <c r="D19">
+        <v>0.95679196444933101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.055260428440354774</v>
+      </c>
+      <c r="B20">
+        <v>0.92001426291144583</v>
+      </c>
+      <c r="C20">
+        <v>0.54229103981178151</v>
+      </c>
+      <c r="D20">
+        <v>0.97237421822710979</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.10722655830054398</v>
+      </c>
+      <c r="B21">
+        <v>0.84534609467207078</v>
+      </c>
+      <c r="C21">
+        <v>0.55253010679647241</v>
+      </c>
+      <c r="D21">
+        <v>0.94753345230672203</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.1485577914149343</v>
+      </c>
+      <c r="B22">
+        <v>0.83856847136031176</v>
+      </c>
+      <c r="C22">
+        <v>0.41168871969024201</v>
+      </c>
+      <c r="D22">
+        <v>0.92761768654625809</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.094066116759383589</v>
+      </c>
+      <c r="B23">
+        <v>0.85764295151293624</v>
+      </c>
+      <c r="C23">
+        <v>0.55662706933048267</v>
+      </c>
+      <c r="D23">
+        <v>0.95375130549694132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.13392526118658085</v>
+      </c>
+      <c r="B24">
+        <v>0.87063904363555888</v>
+      </c>
+      <c r="C24">
+        <v>0.31200241416361008</v>
+      </c>
+      <c r="D24">
+        <v>0.93357183674029853</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.038673613921489269</v>
+      </c>
+      <c r="B25">
+        <v>0.85794096758984695</v>
+      </c>
+      <c r="C25">
+        <v>0.75252053943442565</v>
+      </c>
+      <c r="D25">
+        <v>0.98066319303925553</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.096474573747301007</v>
+      </c>
+      <c r="B26">
+        <v>0.82576303108222615</v>
+      </c>
+      <c r="C26">
+        <v>0.61568407602853026</v>
+      </c>
+      <c r="D26">
+        <v>0.95339606135060673</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.082272966081062049</v>
+      </c>
+      <c r="B27">
+        <v>0.8853034803189096</v>
+      </c>
+      <c r="C27">
+        <v>0.52418954922587213</v>
+      </c>
+      <c r="D27">
+        <v>0.95894894433125311</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.057337669747803258</v>
+      </c>
+      <c r="B28">
+        <v>0.91626487786705102</v>
+      </c>
+      <c r="C28">
+        <v>0.45123553089523744</v>
+      </c>
+      <c r="D28">
+        <v>0.97133116512609841</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.13371177370030582</v>
+      </c>
+      <c r="B29">
+        <v>0.85170570020399305</v>
+      </c>
+      <c r="C29">
+        <v>0.41094710663734824</v>
+      </c>
+      <c r="D29">
+        <v>0.93425522426095819</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.13097813025714974</v>
+      </c>
+      <c r="B30">
+        <v>0.85276782298842091</v>
+      </c>
+      <c r="C30">
+        <v>0.48161132822559516</v>
+      </c>
+      <c r="D30">
+        <v>0.93665646148326931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.082924495476687538</v>
+      </c>
+      <c r="B31">
+        <v>0.88546537133795666</v>
+      </c>
+      <c r="C31">
+        <v>0.54496833094104558</v>
+      </c>
+      <c r="D31">
+        <v>0.95891469496636506</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.16028689001337751</v>
+      </c>
+      <c r="B32">
+        <v>0.83787262762724513</v>
+      </c>
+      <c r="C32">
+        <v>0.3922199175753826</v>
+      </c>
+      <c r="D32">
+        <v>0.92309945665871784</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.090144966085915698</v>
+      </c>
+      <c r="B33">
+        <v>0.85994954825894898</v>
+      </c>
+      <c r="C33">
+        <v>0.53967426081842451</v>
+      </c>
+      <c r="D33">
+        <v>0.95532355070857533</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.019784538937764742</v>
+      </c>
+      <c r="B34">
+        <v>0.91859878987887389</v>
+      </c>
+      <c r="C34">
+        <v>0.78826358918784523</v>
+      </c>
+      <c r="D34">
+        <v>0.99010773053111756</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.058728542844104323</v>
+      </c>
+      <c r="B35">
+        <v>0.87628219927670026</v>
+      </c>
+      <c r="C35">
+        <v>0.65807445779936591</v>
+      </c>
+      <c r="D35">
+        <v>0.97069813521177284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.06683075186555465</v>
+      </c>
+      <c r="B36">
+        <v>0.8772283112891448</v>
+      </c>
+      <c r="C36">
+        <v>0.60031613215017499</v>
+      </c>
+      <c r="D36">
+        <v>0.96673094207897003</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.067082711527155989</v>
+      </c>
+      <c r="B37">
+        <v>0.89692360954817141</v>
+      </c>
+      <c r="C37">
+        <v>0.54350753665294627</v>
+      </c>
+      <c r="D37">
+        <v>0.96651291095735536</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.10906859463560496</v>
+      </c>
+      <c r="B38">
+        <v>0.85695450146373631</v>
+      </c>
+      <c r="C38">
+        <v>0.51626069198465352</v>
+      </c>
+      <c r="D38">
+        <v>0.94680828907633041</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.090375912071672684</v>
+      </c>
+      <c r="B39">
+        <v>0.8614738534381895</v>
+      </c>
+      <c r="C39">
+        <v>0.57876635026471801</v>
+      </c>
+      <c r="D39">
+        <v>0.95535741774312033</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.13591607834872912</v>
+      </c>
+      <c r="B40">
+        <v>0.83533706227627114</v>
+      </c>
+      <c r="C40">
+        <v>0.51443869295148215</v>
+      </c>
+      <c r="D40">
+        <v>0.9349362314089581</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.22049689440993792</v>
+      </c>
+      <c r="B41">
+        <v>0.82792607816329211</v>
+      </c>
+      <c r="C41">
+        <v>0.28011063067697156</v>
+      </c>
+      <c r="D41">
+        <v>0.89179434092477572</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.21736383442265791</v>
+      </c>
+      <c r="B42">
+        <v>0.81616515638707443</v>
+      </c>
+      <c r="C42">
+        <v>0.41036053016646007</v>
+      </c>
+      <c r="D42">
+        <v>0.89891793754538851</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.24595500848896437</v>
+      </c>
+      <c r="B43">
+        <v>0.81825503991204773</v>
+      </c>
+      <c r="C43">
+        <v>0.27120874662387112</v>
+      </c>
+      <c r="D43">
+        <v>0.88066284663271066</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.12094036633690804</v>
+      </c>
+      <c r="B44">
+        <v>0.89292112695868875</v>
+      </c>
+      <c r="C44">
+        <v>0.45433942955200163</v>
+      </c>
+      <c r="D44">
+        <v>0.94080682332511245</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.13887352576271694</v>
+      </c>
+      <c r="B45">
+        <v>0.88640108813396112</v>
+      </c>
+      <c r="C45">
+        <v>0.41603262013413617</v>
+      </c>
+      <c r="D45">
+        <v>0.93187304742970745</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.11773498964803314</v>
+      </c>
+      <c r="B46">
+        <v>0.88581747518721599</v>
+      </c>
+      <c r="C46">
+        <v>0.47433344402865113</v>
+      </c>
+      <c r="D46">
+        <v>0.94183712905452044</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.15444627922266563</v>
+      </c>
+      <c r="B47">
+        <v>0.86092103375323015</v>
+      </c>
+      <c r="C47">
+        <v>0.44771832449569399</v>
+      </c>
+      <c r="D47">
+        <v>0.92520730445596289</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.13005243272418845</v>
+      </c>
+      <c r="B48">
+        <v>0.89006176303045048</v>
+      </c>
+      <c r="C48">
+        <v>0.419701731730239</v>
+      </c>
+      <c r="D48">
+        <v>0.93607416403217936</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.15134302694400856</v>
+      </c>
+      <c r="B49">
+        <v>0.87743100482174496</v>
+      </c>
+      <c r="C49">
+        <v>0.40131385509518197</v>
+      </c>
+      <c r="D49">
+        <v>0.92525673878445913</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.13018100235759372</v>
+      </c>
+      <c r="B50">
+        <v>0.87703500513656318</v>
+      </c>
+      <c r="C50">
+        <v>0.4422084825623207</v>
+      </c>
+      <c r="D50">
+        <v>0.93550776991913198</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.11289824171070113</v>
+      </c>
+      <c r="B51">
+        <v>0.88684533237777086</v>
+      </c>
+      <c r="C51">
+        <v>0.46610647489464774</v>
+      </c>
+      <c r="D51">
+        <v>0.943988648888065</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.13015033198938833</v>
+      </c>
+      <c r="B52">
+        <v>0.87334269131262265</v>
+      </c>
+      <c r="C52">
+        <v>0.45608091746736279</v>
+      </c>
+      <c r="D52">
+        <v>0.93556433199938049</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.12181159420289854</v>
+      </c>
+      <c r="B53">
+        <v>0.87205264449894015</v>
+      </c>
+      <c r="C53">
+        <v>0.48006101275308788</v>
+      </c>
+      <c r="D53">
+        <v>0.93958746503941015</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.1712302934298861</v>
+      </c>
+      <c r="B54">
+        <v>0.86437895311738933</v>
+      </c>
+      <c r="C54">
+        <v>0.29461106384742852</v>
+      </c>
+      <c r="D54">
+        <v>0.91484247315883438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.14570255728377501</v>
+      </c>
+      <c r="B55">
+        <v>0.86943261936365168</v>
+      </c>
+      <c r="C55">
+        <v>0.3241860262496723</v>
+      </c>
+      <c r="D55">
+        <v>0.92724148860508981</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.17109074068628893</v>
+      </c>
+      <c r="B56">
+        <v>0.86079839040992412</v>
+      </c>
+      <c r="C56">
+        <v>0.3095673303418055</v>
+      </c>
+      <c r="D56">
+        <v>0.91506231193703635</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.11059131249512011</v>
+      </c>
+      <c r="B57">
+        <v>0.88333017843617401</v>
+      </c>
+      <c r="C57">
+        <v>0.48457745093397264</v>
+      </c>
+      <c r="D57">
+        <v>0.94498629293218461</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.12050640271140294</v>
+      </c>
+      <c r="B58">
+        <v>0.8692291484838488</v>
+      </c>
+      <c r="C58">
+        <v>0.48975874485655679</v>
+      </c>
+      <c r="D58">
+        <v>0.9403887833193888</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.11071918084334437</v>
+      </c>
+      <c r="B59">
+        <v>0.87733664744464379</v>
+      </c>
+      <c r="C59">
+        <v>0.49427292147894347</v>
+      </c>
+      <c r="D59">
+        <v>0.9448822865435782</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.12472125316369109</v>
+      </c>
+      <c r="B60">
+        <v>0.87364571487927034</v>
+      </c>
+      <c r="C60">
+        <v>0.47543238848646768</v>
+      </c>
+      <c r="D60">
+        <v>0.93834536105980793</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.10558186961384119</v>
+      </c>
+      <c r="B61">
+        <v>0.86127266951052461</v>
+      </c>
+      <c r="C61">
+        <v>0.35877443770913786</v>
+      </c>
+      <c r="D61">
+        <v>0.94721345086946029</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.073116720453160616</v>
+      </c>
+      <c r="B62">
+        <v>0.89163153021226305</v>
+      </c>
+      <c r="C62">
+        <v>0.40117666954060333</v>
+      </c>
+      <c r="D62">
+        <v>0.96344163977341957</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.10896560673421948</v>
+      </c>
+      <c r="B63">
+        <v>0.85316580435965061</v>
+      </c>
+      <c r="C63">
+        <v>0.36475696335225877</v>
+      </c>
+      <c r="D63">
+        <v>0.94552095792617341</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.16087166382737084</v>
+      </c>
+      <c r="B64">
+        <v>0.82401831263970737</v>
+      </c>
+      <c r="C64">
+        <v>0.29688209065367005</v>
+      </c>
+      <c r="D64">
+        <v>0.91970045428733682</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.10838549180420978</v>
+      </c>
+      <c r="B65">
+        <v>0.86239066233001382</v>
+      </c>
+      <c r="C65">
+        <v>0.35463852109931626</v>
+      </c>
+      <c r="D65">
+        <v>0.94580725409789501</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.10836606655755592</v>
+      </c>
+      <c r="B66">
+        <v>0.85882116512310624</v>
+      </c>
+      <c r="C66">
+        <v>0.36160442014602262</v>
+      </c>
+      <c r="D66">
+        <v>0.94582787779596289</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.12604021459046172</v>
+      </c>
+      <c r="B67">
+        <v>0.85179894828702207</v>
+      </c>
+      <c r="C67">
+        <v>0.33092975306975592</v>
+      </c>
+      <c r="D67">
+        <v>0.937001013813205</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.08666550290757935</v>
+      </c>
+      <c r="B68">
+        <v>0.8809823049764216</v>
+      </c>
+      <c r="C68">
+        <v>0.39084167063568648</v>
+      </c>
+      <c r="D68">
+        <v>0.95666724854621021</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.085021252400216241</v>
+      </c>
+      <c r="B69">
+        <v>0.88668672076214916</v>
+      </c>
+      <c r="C69">
+        <v>0.39138256996117471</v>
+      </c>
+      <c r="D69">
+        <v>0.95749248087594685</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.079572991628726691</v>
+      </c>
+      <c r="B70">
+        <v>0.88435354305815395</v>
+      </c>
+      <c r="C70">
+        <v>0.41523043045049324</v>
+      </c>
+      <c r="D70">
+        <v>0.96021350418563667</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.12900928858375665</v>
+      </c>
+      <c r="B71">
+        <v>0.85291051249736249</v>
+      </c>
+      <c r="C71">
+        <v>0.32696913012767659</v>
+      </c>
+      <c r="D71">
+        <v>0.93556974939953652</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.13634888438133871</v>
+      </c>
+      <c r="B72">
+        <v>0.83492922154678506</v>
+      </c>
+      <c r="C72">
+        <v>0.33238768205050784</v>
+      </c>
+      <c r="D72">
+        <v>0.93185646672462086</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.14093401116427431</v>
+      </c>
+      <c r="B73">
+        <v>0.84236909769858959</v>
+      </c>
+      <c r="C73">
+        <v>0.31239450369413962</v>
+      </c>
+      <c r="D73">
+        <v>0.92963599813928777</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.087174633022471804</v>
+      </c>
+      <c r="B74">
+        <v>0.88839103699374511</v>
+      </c>
+      <c r="C74">
+        <v>0.3716048377931721</v>
+      </c>
+      <c r="D74">
+        <v>0.95641268348876407</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.11291446929744803</v>
+      </c>
+      <c r="B75">
+        <v>0.85777930491805809</v>
+      </c>
+      <c r="C75">
+        <v>0.34636723141411868</v>
+      </c>
+      <c r="D75">
+        <v>0.94354950058259757</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.12404350225328796</v>
+      </c>
+      <c r="B76">
+        <v>0.85925534007022253</v>
+      </c>
+      <c r="C76">
+        <v>0.32779104670623893</v>
+      </c>
+      <c r="D76">
+        <v>0.93799970875869887</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.12307758769656124</v>
+      </c>
+      <c r="B77">
+        <v>0.85622862003945988</v>
+      </c>
+      <c r="C77">
+        <v>0.33169895897833351</v>
+      </c>
+      <c r="D77">
+        <v>0.93849455373356494</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.071429539846525128</v>
+      </c>
+      <c r="B78">
+        <v>0.89884627306296339</v>
+      </c>
+      <c r="C78">
+        <v>0.40173019723137154</v>
+      </c>
+      <c r="D78">
+        <v>0.96428523007673728</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.094498573780045197</v>
+      </c>
+      <c r="B79">
+        <v>0.87258052884475845</v>
+      </c>
+      <c r="C79">
+        <v>0.37217044561504331</v>
+      </c>
+      <c r="D79">
+        <v>0.9527507131099775</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.064117717594258022</v>
+      </c>
+      <c r="B80">
+        <v>0.90349914513005236</v>
+      </c>
+      <c r="C80">
+        <v>0.42077103432977181</v>
+      </c>
+      <c r="D80">
+        <v>0.96794114120287111</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.10558186961384119</v>
+      </c>
+      <c r="B81">
+        <v>0.86127266951052461</v>
+      </c>
+      <c r="C81">
+        <v>0.35877443770913786</v>
+      </c>
+      <c r="D81">
+        <v>0.94721345086946029</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.073116720453160616</v>
+      </c>
+      <c r="B82">
+        <v>0.89163153021226305</v>
+      </c>
+      <c r="C82">
+        <v>0.40117666954060333</v>
+      </c>
+      <c r="D82">
+        <v>0.96344163977341957</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.10896560673421948</v>
+      </c>
+      <c r="B83">
+        <v>0.85316580435965061</v>
+      </c>
+      <c r="C83">
+        <v>0.36475696335225877</v>
+      </c>
+      <c r="D83">
+        <v>0.94552095792617341</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.16087166382737084</v>
+      </c>
+      <c r="B84">
+        <v>0.82401831263970737</v>
+      </c>
+      <c r="C84">
+        <v>0.29688209065367005</v>
+      </c>
+      <c r="D84">
+        <v>0.91970045428733682</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.10838549180420978</v>
+      </c>
+      <c r="B85">
+        <v>0.86239066233001382</v>
+      </c>
+      <c r="C85">
+        <v>0.35463852109931626</v>
+      </c>
+      <c r="D85">
+        <v>0.94580725409789501</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.10836606655755592</v>
+      </c>
+      <c r="B86">
+        <v>0.85882116512310624</v>
+      </c>
+      <c r="C86">
+        <v>0.36160442014602262</v>
+      </c>
+      <c r="D86">
+        <v>0.94582787779596289</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.12604021459046172</v>
+      </c>
+      <c r="B87">
+        <v>0.85179894828702207</v>
+      </c>
+      <c r="C87">
+        <v>0.33092975306975592</v>
+      </c>
+      <c r="D87">
+        <v>0.937001013813205</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.08666550290757935</v>
+      </c>
+      <c r="B88">
+        <v>0.8809823049764216</v>
+      </c>
+      <c r="C88">
+        <v>0.39084167063568648</v>
+      </c>
+      <c r="D88">
+        <v>0.95666724854621021</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.085021252400216241</v>
+      </c>
+      <c r="B89">
+        <v>0.88668672076214916</v>
+      </c>
+      <c r="C89">
+        <v>0.39138256996117471</v>
+      </c>
+      <c r="D89">
+        <v>0.95749248087594685</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.079572991628726691</v>
+      </c>
+      <c r="B90">
+        <v>0.88435354305815395</v>
+      </c>
+      <c r="C90">
+        <v>0.41523043045049324</v>
+      </c>
+      <c r="D90">
+        <v>0.96021350418563667</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.12900928858375665</v>
+      </c>
+      <c r="B91">
+        <v>0.85291051249736249</v>
+      </c>
+      <c r="C91">
+        <v>0.32696913012767659</v>
+      </c>
+      <c r="D91">
+        <v>0.93556974939953652</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.13634888438133871</v>
+      </c>
+      <c r="B92">
+        <v>0.83492922154678506</v>
+      </c>
+      <c r="C92">
+        <v>0.33238768205050784</v>
+      </c>
+      <c r="D92">
+        <v>0.93185646672462086</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.14093401116427431</v>
+      </c>
+      <c r="B93">
+        <v>0.84236909769858959</v>
+      </c>
+      <c r="C93">
+        <v>0.31239450369413962</v>
+      </c>
+      <c r="D93">
+        <v>0.92963599813928777</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.087174633022471804</v>
+      </c>
+      <c r="B94">
+        <v>0.88839103699374511</v>
+      </c>
+      <c r="C94">
+        <v>0.3716048377931721</v>
+      </c>
+      <c r="D94">
+        <v>0.95641268348876407</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.11291446929744803</v>
+      </c>
+      <c r="B95">
+        <v>0.85777930491805809</v>
+      </c>
+      <c r="C95">
+        <v>0.34636723141411868</v>
+      </c>
+      <c r="D95">
+        <v>0.94354950058259757</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.12404350225328796</v>
+      </c>
+      <c r="B96">
+        <v>0.85925534007022253</v>
+      </c>
+      <c r="C96">
+        <v>0.32779104670623893</v>
+      </c>
+      <c r="D96">
+        <v>0.93799970875869887</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.12307758769656124</v>
+      </c>
+      <c r="B97">
+        <v>0.85622862003945988</v>
+      </c>
+      <c r="C97">
+        <v>0.33169895897833351</v>
+      </c>
+      <c r="D97">
+        <v>0.93849455373356494</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.071429539846525128</v>
+      </c>
+      <c r="B98">
+        <v>0.89884627306296339</v>
+      </c>
+      <c r="C98">
+        <v>0.40173019723137154</v>
+      </c>
+      <c r="D98">
+        <v>0.96428523007673728</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.094498573780045197</v>
+      </c>
+      <c r="B99">
+        <v>0.87258052884475845</v>
+      </c>
+      <c r="C99">
+        <v>0.37217044561504331</v>
+      </c>
+      <c r="D99">
+        <v>0.9527507131099775</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.064117717594258022</v>
+      </c>
+      <c r="B100">
+        <v>0.90349914513005236</v>
+      </c>
+      <c r="C100">
+        <v>0.42077103432977181</v>
+      </c>
+      <c r="D100">
+        <v>0.96794114120287111</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.09425825100706979</v>
+      </c>
+      <c r="B101">
+        <v>0.70909390341262712</v>
+      </c>
+      <c r="C101">
+        <v>0.64361635925749705</v>
+      </c>
+      <c r="D101">
+        <v>0.95304887722842024</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0.094485211183503406</v>
+      </c>
+      <c r="B102">
+        <v>0.7014814845015922</v>
+      </c>
+      <c r="C102">
+        <v>0.64318483371354629</v>
+      </c>
+      <c r="D102">
+        <v>0.95315022580202857</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.097164678803096885</v>
+      </c>
+      <c r="B103">
+        <v>0.74641092805705689</v>
+      </c>
+      <c r="C103">
+        <v>0.56001536544209451</v>
+      </c>
+      <c r="D103">
+        <v>0.95149671014391668</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.14264297826422076</v>
+      </c>
+      <c r="B104">
+        <v>0.74745444896585911</v>
+      </c>
+      <c r="C104">
+        <v>0.40150472827881767</v>
+      </c>
+      <c r="D104">
+        <v>0.92895598890087883</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.076243786261233182</v>
+      </c>
+      <c r="B105">
+        <v>0.83707674452884562</v>
+      </c>
+      <c r="C105">
+        <v>0.47960743151288343</v>
+      </c>
+      <c r="D105">
+        <v>0.96189195364100866</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.09157256405833257</v>
+      </c>
+      <c r="B106">
+        <v>0.78566458928505956</v>
+      </c>
+      <c r="C106">
+        <v>0.51833864739250302</v>
+      </c>
+      <c r="D106">
+        <v>0.95427121897710143</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0.098290860083312892</v>
+      </c>
+      <c r="B107">
+        <v>0.70166662155774717</v>
+      </c>
+      <c r="C107">
+        <v>0.62949458522203017</v>
+      </c>
+      <c r="D107">
+        <v>0.95101792861226819</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.053057851239669426</v>
+      </c>
+      <c r="B108">
+        <v>0.83107848665892936</v>
+      </c>
+      <c r="C108">
+        <v>0.64004848387708801</v>
+      </c>
+      <c r="D108">
+        <v>0.97347107438016534</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.03953769285675067</v>
+      </c>
+      <c r="B109">
+        <v>0.82795509819855528</v>
+      </c>
+      <c r="C109">
+        <v>0.74192344216310435</v>
+      </c>
+      <c r="D109">
+        <v>0.98023115357162471</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0.017575187969924813</v>
+      </c>
+      <c r="B110">
+        <v>0.93618661728959651</v>
+      </c>
+      <c r="C110">
+        <v>0.70780228644753307</v>
+      </c>
+      <c r="D110">
+        <v>0.99121240601503757</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0.024245967864410897</v>
+      </c>
+      <c r="B111">
+        <v>0.92516131336590191</v>
+      </c>
+      <c r="C111">
+        <v>0.65308522515213341</v>
+      </c>
+      <c r="D111">
+        <v>0.98787701606779454</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0.06134765375271705</v>
+      </c>
+      <c r="B112">
+        <v>0.80137342669666412</v>
+      </c>
+      <c r="C112">
+        <v>0.64865711740711118</v>
+      </c>
+      <c r="D112">
+        <v>0.96932617312364122</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0.02651541464634536</v>
+      </c>
+      <c r="B113">
+        <v>0.79671052607506543</v>
+      </c>
+      <c r="C113">
+        <v>0.85150558804709808</v>
+      </c>
+      <c r="D113">
+        <v>0.98674229267682745</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0.0291433299389002</v>
+      </c>
+      <c r="B114">
+        <v>0.81987355437593756</v>
+      </c>
+      <c r="C114">
+        <v>0.81178687102798186</v>
+      </c>
+      <c r="D114">
+        <v>0.98542833503054983</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0.044913777393047527</v>
+      </c>
+      <c r="B115">
+        <v>0.80297725363735506</v>
+      </c>
+      <c r="C115">
+        <v>0.734671814287572</v>
+      </c>
+      <c r="D115">
+        <v>0.97754690798365906</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0.021916075285405741</v>
+      </c>
+      <c r="B116">
+        <v>0.91045895485045936</v>
+      </c>
+      <c r="C116">
+        <v>0.73464228727863001</v>
+      </c>
+      <c r="D116">
+        <v>0.98904196235729713</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0.041768647312557548</v>
+      </c>
+      <c r="B117">
+        <v>0.89566426199311955</v>
+      </c>
+      <c r="C117">
+        <v>0.56511477394909393</v>
+      </c>
+      <c r="D117">
+        <v>0.97911567634372121</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.039800888212778482</v>
+      </c>
+      <c r="B118">
+        <v>0.82279771645404687</v>
+      </c>
+      <c r="C118">
+        <v>0.74464636758642389</v>
+      </c>
+      <c r="D118">
+        <v>0.98009955589361075</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.079175554515026961</v>
+      </c>
+      <c r="B119">
+        <v>0.79158578703110094</v>
+      </c>
+      <c r="C119">
+        <v>0.56764293973967883</v>
+      </c>
+      <c r="D119">
+        <v>0.96053361774448098</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.1202181839226807</v>
+      </c>
+      <c r="B120">
+        <v>0.75973964974523933</v>
+      </c>
+      <c r="C120">
+        <v>0.44311646946159339</v>
+      </c>
+      <c r="D120">
+        <v>0.9400597063873295</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0.06176781823840647</v>
+      </c>
+      <c r="B121">
+        <v>0.75689408037813044</v>
+      </c>
+      <c r="C121">
+        <v>0.71278318882140135</v>
+      </c>
+      <c r="D121">
+        <v>0.96915758896151061</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.13873528825054857</v>
+      </c>
+      <c r="B122">
+        <v>0.77901817754596181</v>
+      </c>
+      <c r="C122">
+        <v>0.43473893543652647</v>
+      </c>
+      <c r="D122">
+        <v>0.931174945142629</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0.13604660593117243</v>
+      </c>
+      <c r="B123">
+        <v>0.78502147120829679</v>
+      </c>
+      <c r="C123">
+        <v>0.36476508270367503</v>
+      </c>
+      <c r="D123">
+        <v>0.93219897332384161</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.18758743833296518</v>
+      </c>
+      <c r="B124">
+        <v>0.74027694059036386</v>
+      </c>
+      <c r="C124">
+        <v>0.38335869320818955</v>
+      </c>
+      <c r="D124">
+        <v>0.90867794774562505</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0.079842267288711147</v>
+      </c>
+      <c r="B125">
+        <v>0.7328546196589425</v>
+      </c>
+      <c r="C125">
+        <v>0.67359850499993568</v>
+      </c>
+      <c r="D125">
+        <v>0.96023755117585441</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0.036228900782214912</v>
+      </c>
+      <c r="B126">
+        <v>0.77047932365576388</v>
+      </c>
+      <c r="C126">
+        <v>0.80890979595756163</v>
+      </c>
+      <c r="D126">
+        <v>0.98188554960889252</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.039004384934617491</v>
+      </c>
+      <c r="B127">
+        <v>0.8106802850198116</v>
+      </c>
+      <c r="C127">
+        <v>0.76425311442546218</v>
+      </c>
+      <c r="D127">
+        <v>0.98049780753269122</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0.10506764038390831</v>
+      </c>
+      <c r="B128">
+        <v>0.75885440682869199</v>
+      </c>
+      <c r="C128">
+        <v>0.54249309318004346</v>
+      </c>
+      <c r="D128">
+        <v>0.94774510922622446</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.16146330922160046</v>
+      </c>
+      <c r="B129">
+        <v>0.74387649963339364</v>
+      </c>
+      <c r="C129">
+        <v>0.46201257141925262</v>
+      </c>
+      <c r="D129">
+        <v>0.92173591207558037</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0.14308330603777708</v>
+      </c>
+      <c r="B130">
+        <v>0.75024083221800808</v>
+      </c>
+      <c r="C130">
+        <v>0.46559256173592328</v>
+      </c>
+      <c r="D130">
+        <v>0.92947738108235978</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0.083080122987882088</v>
+      </c>
+      <c r="B131">
+        <v>0.76952423181306995</v>
+      </c>
+      <c r="C131">
+        <v>0.6101400350348567</v>
+      </c>
+      <c r="D131">
+        <v>0.95855639959004046</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0.030400129644361944</v>
+      </c>
+      <c r="B132">
+        <v>0.80002956505174938</v>
+      </c>
+      <c r="C132">
+        <v>0.81877314639391374</v>
+      </c>
+      <c r="D132">
+        <v>0.98479993517781894</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0.062348804500703243</v>
+      </c>
+      <c r="B133">
+        <v>0.7553836270332186</v>
+      </c>
+      <c r="C133">
+        <v>0.70881069817079789</v>
+      </c>
+      <c r="D133">
+        <v>0.96885372714486639</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0.012916045702930949</v>
+      </c>
+      <c r="B134">
+        <v>0.70342468135267922</v>
+      </c>
+      <c r="C134">
+        <v>0.9444772574268252</v>
+      </c>
+      <c r="D134">
+        <v>0.99354197714853454</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0.091161911118527186</v>
+      </c>
+      <c r="B135">
+        <v>0.70510336385219596</v>
+      </c>
+      <c r="C135">
+        <v>0.68148421881136079</v>
+      </c>
+      <c r="D135">
+        <v>0.95499610656877465</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0.065499896928468374</v>
+      </c>
+      <c r="B136">
+        <v>0.81270156608470201</v>
+      </c>
+      <c r="C136">
+        <v>0.60147700564005901</v>
+      </c>
+      <c r="D136">
+        <v>0.96725005153576582</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.056661331582331297</v>
+      </c>
+      <c r="B137">
+        <v>0.83689017151839329</v>
+      </c>
+      <c r="C137">
+        <v>0.60298074543464752</v>
+      </c>
+      <c r="D137">
+        <v>0.97166933420883428</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0.06473246925888998</v>
+      </c>
+      <c r="B138">
+        <v>0.83761398085422489</v>
+      </c>
+      <c r="C138">
+        <v>0.54938466753279547</v>
+      </c>
+      <c r="D138">
+        <v>0.96763376537055501</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.073368197498127896</v>
+      </c>
+      <c r="B139">
+        <v>0.72977032861010327</v>
+      </c>
+      <c r="C139">
+        <v>0.68926049987184212</v>
+      </c>
+      <c r="D139">
+        <v>0.96336500570839312</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.092703505644682119</v>
+      </c>
+      <c r="B140">
+        <v>0.7090568508051448</v>
+      </c>
+      <c r="C140">
+        <v>0.64419593488271265</v>
+      </c>
+      <c r="D140">
+        <v>0.95398098633392736</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.11741720030296771</v>
+      </c>
+      <c r="B141">
+        <v>0.74281966800077248</v>
+      </c>
+      <c r="C141">
+        <v>0.45968007746499084</v>
+      </c>
+      <c r="D141">
+        <v>0.94129139984851606</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.19619272192562953</v>
+      </c>
+      <c r="B142">
+        <v>0.7469008319331808</v>
+      </c>
+      <c r="C142">
+        <v>0.33087464705747271</v>
+      </c>
+      <c r="D142">
+        <v>0.90246885777241992</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0.14792795248316354</v>
+      </c>
+      <c r="B143">
+        <v>0.77706195012640833</v>
+      </c>
+      <c r="C143">
+        <v>0.39223595122110305</v>
+      </c>
+      <c r="D143">
+        <v>0.92613823492669189</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.12704299554010537</v>
+      </c>
+      <c r="B144">
+        <v>0.76925620109115089</v>
+      </c>
+      <c r="C144">
+        <v>0.39473781982638023</v>
+      </c>
+      <c r="D144">
+        <v>0.93647850222994733</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.079179761852064989</v>
+      </c>
+      <c r="B145">
+        <v>0.85656227152196074</v>
+      </c>
+      <c r="C145">
+        <v>0.42941658578021369</v>
+      </c>
+      <c r="D145">
+        <v>0.96041011907396745</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.15353553052869681</v>
+      </c>
+      <c r="B146">
+        <v>0.74132117166854039</v>
+      </c>
+      <c r="C146">
+        <v>0.35827694313278918</v>
+      </c>
+      <c r="D146">
+        <v>0.92324285433624831</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.14916030534351146</v>
+      </c>
+      <c r="B147">
+        <v>0.73364977389290342</v>
+      </c>
+      <c r="C147">
+        <v>0.45633746352976795</v>
+      </c>
+      <c r="D147">
+        <v>0.92562340966921119</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.11801594421218327</v>
+      </c>
+      <c r="B148">
+        <v>0.73826836720084288</v>
+      </c>
+      <c r="C148">
+        <v>0.47868187242361682</v>
+      </c>
+      <c r="D148">
+        <v>0.94101459578093349</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.1036640288232645</v>
+      </c>
+      <c r="B149">
+        <v>0.80553723185602177</v>
+      </c>
+      <c r="C149">
+        <v>0.45280988258239235</v>
+      </c>
+      <c r="D149">
+        <v>0.94817870852902686</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.17629146152340514</v>
+      </c>
+      <c r="B150">
+        <v>0.77338750295500291</v>
+      </c>
+      <c r="C150">
+        <v>0.33240958308396085</v>
+      </c>
+      <c r="D150">
+        <v>0.91207509623540162</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0.13505353179266222</v>
+      </c>
+      <c r="B151">
+        <v>0.80005665379920154</v>
+      </c>
+      <c r="C151">
+        <v>0.35364977590202806</v>
+      </c>
+      <c r="D151">
+        <v>0.93249064281672989</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.15241736017163396</v>
+      </c>
+      <c r="B152">
+        <v>0.78966488064110341</v>
+      </c>
+      <c r="C152">
+        <v>0.33430252078900941</v>
+      </c>
+      <c r="D152">
+        <v>0.92380954007752691</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.11548488008342021</v>
+      </c>
+      <c r="B153">
+        <v>0.81009129962458915</v>
+      </c>
+      <c r="C153">
+        <v>0.38136424746951664</v>
+      </c>
+      <c r="D153">
+        <v>0.94225755995828986</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0.16034309202248134</v>
+      </c>
+      <c r="B154">
+        <v>0.75108062059550629</v>
+      </c>
+      <c r="C154">
+        <v>0.40978095223974742</v>
+      </c>
+      <c r="D154">
+        <v>0.92008011072896567</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.21228478172174622</v>
+      </c>
+      <c r="B155">
+        <v>0.68384158075798807</v>
+      </c>
+      <c r="C155">
+        <v>0.38722019229280691</v>
+      </c>
+      <c r="D155">
+        <v>0.89648102815177499</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.033512668848057724</v>
+      </c>
+      <c r="B156">
+        <v>0.80099202590114682</v>
+      </c>
+      <c r="C156">
+        <v>0.8008953601852743</v>
+      </c>
+      <c r="D156">
+        <v>0.98324366557597109</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.029349982495040262</v>
+      </c>
+      <c r="B157">
+        <v>0.7595858128302182</v>
+      </c>
+      <c r="C157">
+        <v>0.85469173549550148</v>
+      </c>
+      <c r="D157">
+        <v>0.98532500875247997</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.067538925572674657</v>
+      </c>
+      <c r="B158">
+        <v>0.7211280255062068</v>
+      </c>
+      <c r="C158">
+        <v>0.71195720853693367</v>
+      </c>
+      <c r="D158">
+        <v>0.96623053721366292</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.14146869390771827</v>
+      </c>
+      <c r="B159">
+        <v>0.73706813026908791</v>
+      </c>
+      <c r="C159">
+        <v>0.39406472035998369</v>
+      </c>
+      <c r="D159">
+        <v>0.92927269207757035</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.12440562613430128</v>
+      </c>
+      <c r="B160">
+        <v>0.7773534577336888</v>
+      </c>
+      <c r="C160">
+        <v>0.3976544070589359</v>
+      </c>
+      <c r="D160">
+        <v>0.93779718693284941</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.040172166427546632</v>
+      </c>
+      <c r="B161">
+        <v>0.9055056812046105</v>
+      </c>
+      <c r="C161">
+        <v>0.53799826687915109</v>
+      </c>
+      <c r="D161">
+        <v>0.97991391678622675</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.069203909389201818</v>
+      </c>
+      <c r="B162">
+        <v>0.73807920121501225</v>
+      </c>
+      <c r="C162">
+        <v>0.68348418314394777</v>
+      </c>
+      <c r="D162">
+        <v>0.96540974305884542</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.051434282858570712</v>
+      </c>
+      <c r="B163">
+        <v>0.76673803794730211</v>
+      </c>
+      <c r="C163">
+        <v>0.73880726997820434</v>
+      </c>
+      <c r="D163">
+        <v>0.97428285857071473</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.074353876739562633</v>
+      </c>
+      <c r="B164">
+        <v>0.85259549677876845</v>
+      </c>
+      <c r="C164">
+        <v>0.43108475676696112</v>
+      </c>
+      <c r="D164">
+        <v>0.9628230616302188</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.1851441449901399</v>
+      </c>
+      <c r="B165">
+        <v>0.64720893462241214</v>
+      </c>
+      <c r="C165">
+        <v>0.44755321855012803</v>
+      </c>
+      <c r="D165">
+        <v>0.90834820170908048</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.18159016804614997</v>
+      </c>
+      <c r="B166">
+        <v>0.67668451903397397</v>
+      </c>
+      <c r="C166">
+        <v>0.42813349524469796</v>
+      </c>
+      <c r="D166">
+        <v>0.90970011511772231</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.14508111160546222</v>
+      </c>
+      <c r="B167">
+        <v>0.66928939786000086</v>
+      </c>
+      <c r="C167">
+        <v>0.5269666147750488</v>
+      </c>
+      <c r="D167">
+        <v>0.92773894269710344</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.22850882018557234</v>
+      </c>
+      <c r="B168">
+        <v>0.68427511324003776</v>
+      </c>
+      <c r="C168">
+        <v>0.29959810183459146</v>
+      </c>
+      <c r="D168">
+        <v>0.88696806885001411</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.25931020733652305</v>
+      </c>
+      <c r="B169">
+        <v>0.67661146281457452</v>
+      </c>
+      <c r="C169">
+        <v>0.3220854281609854</v>
+      </c>
+      <c r="D169">
+        <v>0.8748212387028178</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.14479658876449139</v>
+      </c>
+      <c r="B170">
+        <v>0.74219346927599583</v>
+      </c>
+      <c r="C170">
+        <v>0.45935843283668065</v>
+      </c>
+      <c r="D170">
+        <v>0.92783820281053275</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.21054485325740385</v>
+      </c>
+      <c r="B171">
+        <v>0.66959757264366404</v>
+      </c>
+      <c r="C171">
+        <v>0.3988488526239351</v>
+      </c>
+      <c r="D171">
+        <v>0.89703548812860567</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.18983118330944415</v>
+      </c>
+      <c r="B172">
+        <v>0.70263812000150339</v>
+      </c>
+      <c r="C172">
+        <v>0.39842783382223851</v>
+      </c>
+      <c r="D172">
+        <v>0.90588602219036995</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.17418072211889954</v>
+      </c>
+      <c r="B173">
+        <v>0.68154128620923526</v>
+      </c>
+      <c r="C173">
+        <v>0.44400081687953641</v>
+      </c>
+      <c r="D173">
+        <v>0.91352423095833601</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.19966694078947367</v>
+      </c>
+      <c r="B174">
+        <v>0.72712850660450046</v>
+      </c>
+      <c r="C174">
+        <v>0.36527667679297948</v>
+      </c>
+      <c r="D174">
+        <v>0.90083538925438589</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0.26102776626605889</v>
+      </c>
+      <c r="B175">
+        <v>0.67202536518673062</v>
+      </c>
+      <c r="C175">
+        <v>0.32062934604982801</v>
+      </c>
+      <c r="D175">
+        <v>0.87292754524105542</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.23733930211202939</v>
+      </c>
+      <c r="B176">
+        <v>0.68820415227361875</v>
+      </c>
+      <c r="C176">
+        <v>0.33705585228929907</v>
+      </c>
+      <c r="D176">
+        <v>0.88365983062952758</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.27403526685142865</v>
+      </c>
+      <c r="B177">
+        <v>0.70087972330672899</v>
+      </c>
+      <c r="C177">
+        <v>0.28949899341318341</v>
+      </c>
+      <c r="D177">
+        <v>0.86907019335180957</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.23211769581433903</v>
+      </c>
+      <c r="B178">
+        <v>0.67290789395064177</v>
+      </c>
+      <c r="C178">
+        <v>0.36809879103193111</v>
+      </c>
+      <c r="D178">
+        <v>0.88792547313164816</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.090132443635628348</v>
+      </c>
+      <c r="B179">
+        <v>0.76875969482002049</v>
+      </c>
+      <c r="C179">
+        <v>0.58504652621311093</v>
+      </c>
+      <c r="D179">
+        <v>0.95493377818218594</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.14728498757837455</v>
+      </c>
+      <c r="B180">
+        <v>0.74522881913746464</v>
+      </c>
+      <c r="C180">
+        <v>0.38433203181959269</v>
+      </c>
+      <c r="D180">
+        <v>0.92642848692771806</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.040172166427546632</v>
+      </c>
+      <c r="B181">
+        <v>0.9055056812046105</v>
+      </c>
+      <c r="C181">
+        <v>0.53799826687915109</v>
+      </c>
+      <c r="D181">
+        <v>0.97991391678622675</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.069203909389201818</v>
+      </c>
+      <c r="B182">
+        <v>0.73807920121501225</v>
+      </c>
+      <c r="C182">
+        <v>0.68348418314394777</v>
+      </c>
+      <c r="D182">
+        <v>0.96540974305884542</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.051434282858570712</v>
+      </c>
+      <c r="B183">
+        <v>0.76673803794730211</v>
+      </c>
+      <c r="C183">
+        <v>0.73880726997820434</v>
+      </c>
+      <c r="D183">
+        <v>0.97428285857071473</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.074353876739562633</v>
+      </c>
+      <c r="B184">
+        <v>0.85259549677876845</v>
+      </c>
+      <c r="C184">
+        <v>0.43108475676696112</v>
+      </c>
+      <c r="D184">
+        <v>0.9628230616302188</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.1851441449901399</v>
+      </c>
+      <c r="B185">
+        <v>0.64720893462241214</v>
+      </c>
+      <c r="C185">
+        <v>0.44755321855012803</v>
+      </c>
+      <c r="D185">
+        <v>0.90834820170908048</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.18159016804614997</v>
+      </c>
+      <c r="B186">
+        <v>0.67668451903397397</v>
+      </c>
+      <c r="C186">
+        <v>0.42813349524469796</v>
+      </c>
+      <c r="D186">
+        <v>0.90970011511772231</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.14508111160546222</v>
+      </c>
+      <c r="B187">
+        <v>0.66928939786000086</v>
+      </c>
+      <c r="C187">
+        <v>0.5269666147750488</v>
+      </c>
+      <c r="D187">
+        <v>0.92773894269710344</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.22850882018557234</v>
+      </c>
+      <c r="B188">
+        <v>0.68427511324003776</v>
+      </c>
+      <c r="C188">
+        <v>0.29959810183459146</v>
+      </c>
+      <c r="D188">
+        <v>0.88696806885001411</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>0.25931020733652305</v>
+      </c>
+      <c r="B189">
+        <v>0.67661146281457452</v>
+      </c>
+      <c r="C189">
+        <v>0.3220854281609854</v>
+      </c>
+      <c r="D189">
+        <v>0.8748212387028178</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.14479658876449139</v>
+      </c>
+      <c r="B190">
+        <v>0.74219346927599583</v>
+      </c>
+      <c r="C190">
+        <v>0.45935843283668065</v>
+      </c>
+      <c r="D190">
+        <v>0.92783820281053275</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.21054485325740385</v>
+      </c>
+      <c r="B191">
+        <v>0.66959757264366404</v>
+      </c>
+      <c r="C191">
+        <v>0.3988488526239351</v>
+      </c>
+      <c r="D191">
+        <v>0.89703548812860567</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.18983118330944415</v>
+      </c>
+      <c r="B192">
+        <v>0.70263812000150339</v>
+      </c>
+      <c r="C192">
+        <v>0.39842783382223851</v>
+      </c>
+      <c r="D192">
+        <v>0.90588602219036995</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.17418072211889954</v>
+      </c>
+      <c r="B193">
+        <v>0.68154128620923526</v>
+      </c>
+      <c r="C193">
+        <v>0.44400081687953641</v>
+      </c>
+      <c r="D193">
+        <v>0.91352423095833601</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>0.19966694078947367</v>
+      </c>
+      <c r="B194">
+        <v>0.72712850660450046</v>
+      </c>
+      <c r="C194">
+        <v>0.36527667679297948</v>
+      </c>
+      <c r="D194">
+        <v>0.90083538925438589</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.26102776626605889</v>
+      </c>
+      <c r="B195">
+        <v>0.67202536518673062</v>
+      </c>
+      <c r="C195">
+        <v>0.32062934604982801</v>
+      </c>
+      <c r="D195">
+        <v>0.87292754524105542</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.23733930211202939</v>
+      </c>
+      <c r="B196">
+        <v>0.68820415227361875</v>
+      </c>
+      <c r="C196">
+        <v>0.33705585228929907</v>
+      </c>
+      <c r="D196">
+        <v>0.88365983062952758</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.27403526685142865</v>
+      </c>
+      <c r="B197">
+        <v>0.70087972330672899</v>
+      </c>
+      <c r="C197">
+        <v>0.28949899341318341</v>
+      </c>
+      <c r="D197">
+        <v>0.86907019335180957</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>0.23211769581433903</v>
+      </c>
+      <c r="B198">
+        <v>0.67290789395064177</v>
+      </c>
+      <c r="C198">
+        <v>0.36809879103193111</v>
+      </c>
+      <c r="D198">
+        <v>0.88792547313164816</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.090132443635628348</v>
+      </c>
+      <c r="B199">
+        <v>0.76875969482002049</v>
+      </c>
+      <c r="C199">
+        <v>0.58504652621311093</v>
+      </c>
+      <c r="D199">
+        <v>0.95493377818218594</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0.14728498757837455</v>
+      </c>
+      <c r="B200">
+        <v>0.74522881913746464</v>
+      </c>
+      <c r="C200">
+        <v>0.38433203181959269</v>
+      </c>
+      <c r="D200">
+        <v>0.92642848692771806</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0.080811000175162018</v>
+      </c>
+      <c r="B201">
+        <v>0.82198943427760185</v>
+      </c>
+      <c r="C201">
+        <v>0.52979545296960662</v>
+      </c>
+      <c r="D201">
+        <v>0.95962563982795202</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0.062801708637993212</v>
+      </c>
+      <c r="B202">
+        <v>0.82717577893620109</v>
+      </c>
+      <c r="C202">
+        <v>0.61212894926116912</v>
+      </c>
+      <c r="D202">
+        <v>0.96862093953295769</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0.064679262797578754</v>
+      </c>
+      <c r="B203">
+        <v>0.76985916956799927</v>
+      </c>
+      <c r="C203">
+        <v>0.71052007855739219</v>
+      </c>
+      <c r="D203">
+        <v>0.96797885764567093</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0.045960179175086838</v>
+      </c>
+      <c r="B204">
+        <v>0.7684131781546929</v>
+      </c>
+      <c r="C204">
+        <v>0.78422201305233252</v>
+      </c>
+      <c r="D204">
+        <v>0.97714718308328907</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.05387589004591322</v>
+      </c>
+      <c r="B205">
+        <v>0.78754848461311022</v>
+      </c>
+      <c r="C205">
+        <v>0.73845576815728164</v>
+      </c>
+      <c r="D205">
+        <v>0.97310731754235591</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.084979105557118184</v>
+      </c>
+      <c r="B206">
+        <v>0.77595300263190004</v>
+      </c>
+      <c r="C206">
+        <v>0.60906942824932708</v>
+      </c>
+      <c r="D206">
+        <v>0.95768121911037896</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.10724758397630738</v>
+      </c>
+      <c r="B207">
+        <v>0.80137575820999929</v>
+      </c>
+      <c r="C207">
+        <v>0.46980517525237686</v>
+      </c>
+      <c r="D207">
+        <v>0.94646063894734112</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.060599150458305391</v>
+      </c>
+      <c r="B208">
+        <v>0.77019436850618606</v>
+      </c>
+      <c r="C208">
+        <v>0.72115665569040854</v>
+      </c>
+      <c r="D208">
+        <v>0.9698196586928981</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.11754293559444967</v>
+      </c>
+      <c r="B209">
+        <v>0.79496175055462914</v>
+      </c>
+      <c r="C209">
+        <v>0.4486385995045124</v>
+      </c>
+      <c r="D209">
+        <v>0.94131200009210247</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.044287113052647438</v>
+      </c>
+      <c r="B210">
+        <v>0.85953946165026351</v>
+      </c>
+      <c r="C210">
+        <v>0.66052490481084214</v>
+      </c>
+      <c r="D210">
+        <v>0.97785644347367628</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.050942990832696718</v>
+      </c>
+      <c r="B211">
+        <v>0.86914008846486612</v>
+      </c>
+      <c r="C211">
+        <v>0.58204757044103494</v>
+      </c>
+      <c r="D211">
+        <v>0.97452850458365159</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.092260611328407932</v>
+      </c>
+      <c r="B212">
+        <v>0.78221325803744146</v>
+      </c>
+      <c r="C212">
+        <v>0.56867994388904985</v>
+      </c>
+      <c r="D212">
+        <v>0.95403065494873407</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>0.12536567902076443</v>
+      </c>
+      <c r="B213">
+        <v>0.75994212398843997</v>
+      </c>
+      <c r="C213">
+        <v>0.51975478384321727</v>
+      </c>
+      <c r="D213">
+        <v>0.93768312364326523</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>0.053242854133014959</v>
+      </c>
+      <c r="B214">
+        <v>0.86226895708619022</v>
+      </c>
+      <c r="C214">
+        <v>0.58612643374227558</v>
+      </c>
+      <c r="D214">
+        <v>0.9733785729334925</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.055915371329879102</v>
+      </c>
+      <c r="B215">
+        <v>0.79759741847802723</v>
+      </c>
+      <c r="C215">
+        <v>0.71249309370907798</v>
+      </c>
+      <c r="D215">
+        <v>0.97208549222797935</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.073234195990180023</v>
+      </c>
+      <c r="B216">
+        <v>0.7654958574866001</v>
+      </c>
+      <c r="C216">
+        <v>0.68707470213650457</v>
+      </c>
+      <c r="D216">
+        <v>0.96371375051145658</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.071139724262051035</v>
+      </c>
+      <c r="B217">
+        <v>0.82575434347299914</v>
+      </c>
+      <c r="C217">
+        <v>0.57142047782553407</v>
+      </c>
+      <c r="D217">
+        <v>0.96443013786897447</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.091720109400419692</v>
+      </c>
+      <c r="B218">
+        <v>0.81668818957723444</v>
+      </c>
+      <c r="C218">
+        <v>0.49459725553873035</v>
+      </c>
+      <c r="D218">
+        <v>0.95419495987865366</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.12681549220010757</v>
+      </c>
+      <c r="B219">
+        <v>0.78972808198594246</v>
+      </c>
+      <c r="C219">
+        <v>0.45968729991818746</v>
+      </c>
+      <c r="D219">
+        <v>0.93719631926645508</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.083150416578158554</v>
+      </c>
+      <c r="B220">
+        <v>0.80035696673282164</v>
+      </c>
+      <c r="C220">
+        <v>0.61477205293424086</v>
+      </c>
+      <c r="D220">
+        <v>0.9586175427002448</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>0.084818204595363378</v>
+      </c>
+      <c r="B221">
+        <v>0.77436850590541417</v>
+      </c>
+      <c r="C221">
+        <v>0.69064648265179396</v>
+      </c>
+      <c r="D221">
+        <v>0.95854396643625983</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>0.10353581203305831</v>
+      </c>
+      <c r="B222">
+        <v>0.79524983053929488</v>
+      </c>
+      <c r="C222">
+        <v>0.49053332853257836</v>
+      </c>
+      <c r="D222">
+        <v>0.94846521459424671</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0.21614257091637668</v>
+      </c>
+      <c r="B223">
+        <v>0.77405045662927507</v>
+      </c>
+      <c r="C223">
+        <v>0.27728869047525717</v>
+      </c>
+      <c r="D223">
+        <v>0.89402597630848191</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0.12734738146885652</v>
+      </c>
+      <c r="B224">
+        <v>0.73926517808039716</v>
+      </c>
+      <c r="C224">
+        <v>0.56952550187357232</v>
+      </c>
+      <c r="D224">
+        <v>0.93764848672657786</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.21461377870563675</v>
+      </c>
+      <c r="B225">
+        <v>0.75996109981254356</v>
+      </c>
+      <c r="C225">
+        <v>0.36969784691413987</v>
+      </c>
+      <c r="D225">
+        <v>0.89735714838011293</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0.30256617558989096</v>
+      </c>
+      <c r="B226">
+        <v>0.72710521737823042</v>
+      </c>
+      <c r="C226">
+        <v>0.24995831137856084</v>
+      </c>
+      <c r="D226">
+        <v>0.85894942508084782</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0.2630398272552783</v>
+      </c>
+      <c r="B227">
+        <v>0.75329928763684117</v>
+      </c>
+      <c r="C227">
+        <v>0.26766894117235013</v>
+      </c>
+      <c r="D227">
+        <v>0.87339484698229897</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0.22245597862987354</v>
+      </c>
+      <c r="B228">
+        <v>0.74227805249747925</v>
+      </c>
+      <c r="C228">
+        <v>0.28707215648983464</v>
+      </c>
+      <c r="D228">
+        <v>0.89125660176002874</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.22328151079818359</v>
+      </c>
+      <c r="B229">
+        <v>0.75478200736617052</v>
+      </c>
+      <c r="C229">
+        <v>0.28692816764816709</v>
+      </c>
+      <c r="D229">
+        <v>0.8907821242623245</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.130968331619564</v>
+      </c>
+      <c r="B230">
+        <v>0.77631672039639643</v>
+      </c>
+      <c r="C230">
+        <v>0.47592517537046225</v>
+      </c>
+      <c r="D230">
+        <v>0.93514594736823875</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>0.074059787849566058</v>
+      </c>
+      <c r="B231">
+        <v>0.82915256565237816</v>
+      </c>
+      <c r="C231">
+        <v>0.56670953435001781</v>
+      </c>
+      <c r="D231">
+        <v>0.96297010607521694</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.122626391342543</v>
+      </c>
+      <c r="B232">
+        <v>0.79629938475320372</v>
+      </c>
+      <c r="C232">
+        <v>0.48180064085600827</v>
+      </c>
+      <c r="D232">
+        <v>0.93901503084363869</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>0.11726925760249518</v>
+      </c>
+      <c r="B233">
+        <v>0.75734132793614162</v>
+      </c>
+      <c r="C233">
+        <v>0.64056744970128554</v>
+      </c>
+      <c r="D233">
+        <v>0.94440796523531367</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.10426608821402746</v>
+      </c>
+      <c r="B234">
+        <v>0.76032430195473277</v>
+      </c>
+      <c r="C234">
+        <v>0.66565358167073818</v>
+      </c>
+      <c r="D234">
+        <v>0.94998493612918777</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0.27431823520618448</v>
+      </c>
+      <c r="B235">
+        <v>0.73844696021710854</v>
+      </c>
+      <c r="C235">
+        <v>0.35706727204007738</v>
+      </c>
+      <c r="D235">
+        <v>0.87656248887749955</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>0.17570180008103256</v>
+      </c>
+      <c r="B236">
+        <v>0.7184912352784153</v>
+      </c>
+      <c r="C236">
+        <v>0.49564109254337962</v>
+      </c>
+      <c r="D236">
+        <v>0.91700382010765757</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>0.063684787717374278</v>
+      </c>
+      <c r="B237">
+        <v>0.81897489106582788</v>
+      </c>
+      <c r="C237">
+        <v>0.63612426421393586</v>
+      </c>
+      <c r="D237">
+        <v>0.96817153202081918</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>0.1429024463908185</v>
+      </c>
+      <c r="B238">
+        <v>0.76842455212796756</v>
+      </c>
+      <c r="C238">
+        <v>0.49261402539671595</v>
+      </c>
+      <c r="D238">
+        <v>0.92995822007449913</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.06293283886102799</v>
+      </c>
+      <c r="B239">
+        <v>0.77348914251096368</v>
+      </c>
+      <c r="C239">
+        <v>0.75194691554708837</v>
+      </c>
+      <c r="D239">
+        <v>0.96907675090489376</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>0.05291468463706836</v>
+      </c>
+      <c r="B240">
+        <v>0.8331496791558205</v>
+      </c>
+      <c r="C240">
+        <v>0.691006960616528</v>
+      </c>
+      <c r="D240">
+        <v>0.97354999853183</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.10627850896307271</v>
+      </c>
+      <c r="B241">
+        <v>0.74299566838829789</v>
+      </c>
+      <c r="C241">
+        <v>0.59282616245178832</v>
+      </c>
+      <c r="D241">
+        <v>0.947901231877742</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>0.19905384638563292</v>
+      </c>
+      <c r="B242">
+        <v>0.6919051279330618</v>
+      </c>
+      <c r="C242">
+        <v>0.43583184394810959</v>
+      </c>
+      <c r="D242">
+        <v>0.90249602002792251</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.13846563260340633</v>
+      </c>
+      <c r="B243">
+        <v>0.71250803287671116</v>
+      </c>
+      <c r="C243">
+        <v>0.50808843002632331</v>
+      </c>
+      <c r="D243">
+        <v>0.9308178730738037</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0.057488997515306041</v>
+      </c>
+      <c r="B244">
+        <v>0.77160432756024089</v>
+      </c>
+      <c r="C244">
+        <v>0.71915200627835074</v>
+      </c>
+      <c r="D244">
+        <v>0.97125550124234694</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>0.13724077940153095</v>
+      </c>
+      <c r="B245">
+        <v>0.72090748941498928</v>
+      </c>
+      <c r="C245">
+        <v>0.52946163322548667</v>
+      </c>
+      <c r="D245">
+        <v>0.93156982138714917</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>0.21730627749500775</v>
+      </c>
+      <c r="B246">
+        <v>0.69310341797246622</v>
+      </c>
+      <c r="C246">
+        <v>0.3966275197096818</v>
+      </c>
+      <c r="D246">
+        <v>0.89276821864880973</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.16456078344746336</v>
+      </c>
+      <c r="B247">
+        <v>0.74921751749255683</v>
+      </c>
+      <c r="C247">
+        <v>0.40785638569947147</v>
+      </c>
+      <c r="D247">
+        <v>0.91808286085953406</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.12594720889113412</v>
+      </c>
+      <c r="B248">
+        <v>0.76543532225321376</v>
+      </c>
+      <c r="C248">
+        <v>0.49005443741565874</v>
+      </c>
+      <c r="D248">
+        <v>0.9371190115348994</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.12796376578891031</v>
+      </c>
+      <c r="B249">
+        <v>0.78646720889281885</v>
+      </c>
+      <c r="C249">
+        <v>0.42236344791011105</v>
+      </c>
+      <c r="D249">
+        <v>0.93602257724969673</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.11952940870086071</v>
+      </c>
+      <c r="B250">
+        <v>0.80037429710833796</v>
+      </c>
+      <c r="C250">
+        <v>0.42524905536439184</v>
+      </c>
+      <c r="D250">
+        <v>0.94029606191214077</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.22695617225384776</v>
+      </c>
+      <c r="B251">
+        <v>0.68543274557079226</v>
+      </c>
+      <c r="C251">
+        <v>0.39218881677202372</v>
+      </c>
+      <c r="D251">
+        <v>0.89055774079345018</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>0.27617702448210923</v>
+      </c>
+      <c r="B252">
+        <v>0.70503764968049654</v>
+      </c>
+      <c r="C252">
+        <v>0.3201776131949266</v>
+      </c>
+      <c r="D252">
+        <v>0.86786696105807726</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>0.090776245031564173</v>
+      </c>
+      <c r="B253">
+        <v>0.72182908796035727</v>
+      </c>
+      <c r="C253">
+        <v>0.65336021608488393</v>
+      </c>
+      <c r="D253">
+        <v>0.95461187748421794</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>0.14957110996740436</v>
+      </c>
+      <c r="B254">
+        <v>0.69675750352440025</v>
+      </c>
+      <c r="C254">
+        <v>0.52819634737264276</v>
+      </c>
+      <c r="D254">
+        <v>0.92604827872133577</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>0.22301457008003278</v>
+      </c>
+      <c r="B255">
+        <v>0.65028753943789008</v>
+      </c>
+      <c r="C255">
+        <v>0.4220028472352933</v>
+      </c>
+      <c r="D255">
+        <v>0.89067112345893373</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>0.26608391608391607</v>
+      </c>
+      <c r="B256">
+        <v>0.6422640549917098</v>
+      </c>
+      <c r="C256">
+        <v>0.34917191645887763</v>
+      </c>
+      <c r="D256">
+        <v>0.87002637713164022</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>0.11953961456102785</v>
+      </c>
+      <c r="B257">
+        <v>0.79972609628690805</v>
+      </c>
+      <c r="C257">
+        <v>0.43530792688823372</v>
+      </c>
+      <c r="D257">
+        <v>0.94023019271948594</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>0.064800735440270318</v>
+      </c>
+      <c r="B258">
+        <v>0.88694240201342123</v>
+      </c>
+      <c r="C258">
+        <v>0.43000046780622037</v>
+      </c>
+      <c r="D258">
+        <v>0.96759963227986479</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>0.22299647473560513</v>
+      </c>
+      <c r="B259">
+        <v>0.75655320139878146</v>
+      </c>
+      <c r="C259">
+        <v>0.27257585740975226</v>
+      </c>
+      <c r="D259">
+        <v>0.88933215824520173</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>0.10528983348866704</v>
+      </c>
+      <c r="B260">
+        <v>0.82844607120035663</v>
+      </c>
+      <c r="C260">
+        <v>0.41329699436255635</v>
+      </c>
+      <c r="D260">
+        <v>0.94735508325566653</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>0.075589367897060195</v>
+      </c>
+      <c r="B261">
+        <v>0.83373261000036569</v>
+      </c>
+      <c r="C261">
+        <v>0.5118970946882383</v>
+      </c>
+      <c r="D261">
+        <v>0.96220531605146975</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>0.11236754317111461</v>
+      </c>
+      <c r="B262">
+        <v>0.76878473062656671</v>
+      </c>
+      <c r="C262">
+        <v>0.46150911169208964</v>
+      </c>
+      <c r="D262">
+        <v>0.94381622841444279</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>0.16702923614650839</v>
+      </c>
+      <c r="B263">
+        <v>0.71661297174832395</v>
+      </c>
+      <c r="C263">
+        <v>0.36174144133512798</v>
+      </c>
+      <c r="D263">
+        <v>0.91653999490278881</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>0.11566457512338829</v>
+      </c>
+      <c r="B264">
+        <v>0.78719724008027259</v>
+      </c>
+      <c r="C264">
+        <v>0.40691536462343786</v>
+      </c>
+      <c r="D264">
+        <v>0.94216771243830588</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>0.13875115665974125</v>
+      </c>
+      <c r="B265">
+        <v>0.76344717787413818</v>
+      </c>
+      <c r="C265">
+        <v>0.37168187148626941</v>
+      </c>
+      <c r="D265">
+        <v>0.93062442167012926</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>0.2563333882391699</v>
+      </c>
+      <c r="B266">
+        <v>0.716341857532937</v>
+      </c>
+      <c r="C266">
+        <v>0.30520654126846491</v>
+      </c>
+      <c r="D266">
+        <v>0.87473679514632408</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>0.13136484445209279</v>
+      </c>
+      <c r="B267">
+        <v>0.76866749203486051</v>
+      </c>
+      <c r="C267">
+        <v>0.38353827353584941</v>
+      </c>
+      <c r="D267">
+        <v>0.93431757777395363</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>0.072994718454824553</v>
+      </c>
+      <c r="B268">
+        <v>0.86019347402274737</v>
+      </c>
+      <c r="C268">
+        <v>0.42870293602914589</v>
+      </c>
+      <c r="D268">
+        <v>0.96350264077258774</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>0.06324656750572083</v>
+      </c>
+      <c r="B269">
+        <v>0.87405112832572629</v>
+      </c>
+      <c r="C269">
+        <v>0.44969175464996936</v>
+      </c>
+      <c r="D269">
+        <v>0.9683767162471395</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>0.064385973492443876</v>
+      </c>
+      <c r="B270">
+        <v>0.87563871937937665</v>
+      </c>
+      <c r="C270">
+        <v>0.43663420813512666</v>
+      </c>
+      <c r="D270">
+        <v>0.96780701325377805</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>0.05189288272326309</v>
+      </c>
+      <c r="B271">
+        <v>0.87009504013991812</v>
+      </c>
+      <c r="C271">
+        <v>0.56059629229676233</v>
+      </c>
+      <c r="D271">
+        <v>0.97405355863836851</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>0.066226205430476373</v>
+      </c>
+      <c r="B272">
+        <v>0.86846613954839358</v>
+      </c>
+      <c r="C272">
+        <v>0.45233752097455399</v>
+      </c>
+      <c r="D272">
+        <v>0.96688689728476174</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0.042832775122097905</v>
+      </c>
+      <c r="B273">
+        <v>0.77564740684773026</v>
+      </c>
+      <c r="C273">
+        <v>0.782883169676859</v>
+      </c>
+      <c r="D273">
+        <v>0.97858361243895098</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>0.046514928224441893</v>
+      </c>
+      <c r="B274">
+        <v>0.75804485884907036</v>
+      </c>
+      <c r="C274">
+        <v>0.78226351530033722</v>
+      </c>
+      <c r="D274">
+        <v>0.97674253588777893</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>0.050427900105701515</v>
+      </c>
+      <c r="B275">
+        <v>0.89915972341106087</v>
+      </c>
+      <c r="C275">
+        <v>0.45274233460652213</v>
+      </c>
+      <c r="D275">
+        <v>0.97478604994714924</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>0.078304775363598894</v>
+      </c>
+      <c r="B276">
+        <v>0.846901819592215</v>
+      </c>
+      <c r="C276">
+        <v>0.42725570820915304</v>
+      </c>
+      <c r="D276">
+        <v>0.96085153781232202</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>0.028942717854966483</v>
+      </c>
+      <c r="B277">
+        <v>0.78528977247059328</v>
+      </c>
+      <c r="C277">
+        <v>0.8391967733999387</v>
+      </c>
+      <c r="D277">
+        <v>0.9855286410725167</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>0.20697624034086809</v>
+      </c>
+      <c r="B278">
+        <v>0.66478736210785649</v>
+      </c>
+      <c r="C278">
+        <v>0.40151887020263</v>
+      </c>
+      <c r="D278">
+        <v>0.89706554969788876</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>0.17676427149553717</v>
+      </c>
+      <c r="B279">
+        <v>0.64919842263921712</v>
+      </c>
+      <c r="C279">
+        <v>0.47319389414067753</v>
+      </c>
+      <c r="D279">
+        <v>0.91178910079410946</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>0.14410206358059119</v>
+      </c>
+      <c r="B280">
+        <v>0.70646828200489176</v>
+      </c>
+      <c r="C280">
+        <v>0.4043789951575098</v>
+      </c>
+      <c r="D280">
+        <v>0.92794896820970441</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>0.075589367897060195</v>
+      </c>
+      <c r="B281">
+        <v>0.83373261000036569</v>
+      </c>
+      <c r="C281">
+        <v>0.5118970946882383</v>
+      </c>
+      <c r="D281">
+        <v>0.96220531605146975</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0.11236754317111461</v>
+      </c>
+      <c r="B282">
+        <v>0.76878473062656671</v>
+      </c>
+      <c r="C282">
+        <v>0.46150911169208964</v>
+      </c>
+      <c r="D282">
+        <v>0.94381622841444279</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>0.16702923614650839</v>
+      </c>
+      <c r="B283">
+        <v>0.71661297174832395</v>
+      </c>
+      <c r="C283">
+        <v>0.36174144133512798</v>
+      </c>
+      <c r="D283">
+        <v>0.91653999490278881</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>0.11566457512338829</v>
+      </c>
+      <c r="B284">
+        <v>0.78719724008027259</v>
+      </c>
+      <c r="C284">
+        <v>0.40691536462343786</v>
+      </c>
+      <c r="D284">
+        <v>0.94216771243830588</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>0.13875115665974125</v>
+      </c>
+      <c r="B285">
+        <v>0.76344717787413818</v>
+      </c>
+      <c r="C285">
+        <v>0.37168187148626941</v>
+      </c>
+      <c r="D285">
+        <v>0.93062442167012926</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>0.2563333882391699</v>
+      </c>
+      <c r="B286">
+        <v>0.716341857532937</v>
+      </c>
+      <c r="C286">
+        <v>0.30520654126846491</v>
+      </c>
+      <c r="D286">
+        <v>0.87473679514632408</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>0.13136484445209279</v>
+      </c>
+      <c r="B287">
+        <v>0.76866749203486051</v>
+      </c>
+      <c r="C287">
+        <v>0.38353827353584941</v>
+      </c>
+      <c r="D287">
+        <v>0.93431757777395363</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>0.072994718454824553</v>
+      </c>
+      <c r="B288">
+        <v>0.86019347402274737</v>
+      </c>
+      <c r="C288">
+        <v>0.42870293602914589</v>
+      </c>
+      <c r="D288">
+        <v>0.96350264077258774</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>0.06324656750572083</v>
+      </c>
+      <c r="B289">
+        <v>0.87405112832572629</v>
+      </c>
+      <c r="C289">
+        <v>0.44969175464996936</v>
+      </c>
+      <c r="D289">
+        <v>0.9683767162471395</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>0.064385973492443876</v>
+      </c>
+      <c r="B290">
+        <v>0.87563871937937665</v>
+      </c>
+      <c r="C290">
+        <v>0.43663420813512666</v>
+      </c>
+      <c r="D290">
+        <v>0.96780701325377805</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>0.05189288272326309</v>
+      </c>
+      <c r="B291">
+        <v>0.87009504013991812</v>
+      </c>
+      <c r="C291">
+        <v>0.56059629229676233</v>
+      </c>
+      <c r="D291">
+        <v>0.97405355863836851</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>0.066226205430476373</v>
+      </c>
+      <c r="B292">
+        <v>0.86846613954839358</v>
+      </c>
+      <c r="C292">
+        <v>0.45233752097455399</v>
+      </c>
+      <c r="D292">
+        <v>0.96688689728476174</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>0.042832775122097905</v>
+      </c>
+      <c r="B293">
+        <v>0.77564740684773026</v>
+      </c>
+      <c r="C293">
+        <v>0.782883169676859</v>
+      </c>
+      <c r="D293">
+        <v>0.97858361243895098</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>0.046514928224441893</v>
+      </c>
+      <c r="B294">
+        <v>0.75804485884907036</v>
+      </c>
+      <c r="C294">
+        <v>0.78226351530033722</v>
+      </c>
+      <c r="D294">
+        <v>0.97674253588777893</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>0.050427900105701515</v>
+      </c>
+      <c r="B295">
+        <v>0.89915972341106087</v>
+      </c>
+      <c r="C295">
+        <v>0.45274233460652213</v>
+      </c>
+      <c r="D295">
+        <v>0.97478604994714924</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>0.078304775363598894</v>
+      </c>
+      <c r="B296">
+        <v>0.846901819592215</v>
+      </c>
+      <c r="C296">
+        <v>0.42725570820915304</v>
+      </c>
+      <c r="D296">
+        <v>0.96085153781232202</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>0.028942717854966483</v>
+      </c>
+      <c r="B297">
+        <v>0.78528977247059328</v>
+      </c>
+      <c r="C297">
+        <v>0.8391967733999387</v>
+      </c>
+      <c r="D297">
+        <v>0.9855286410725167</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>0.20697624034086809</v>
+      </c>
+      <c r="B298">
+        <v>0.66478736210785649</v>
+      </c>
+      <c r="C298">
+        <v>0.40151887020263</v>
+      </c>
+      <c r="D298">
+        <v>0.89706554969788876</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>0.17676427149553717</v>
+      </c>
+      <c r="B299">
+        <v>0.64919842263921712</v>
+      </c>
+      <c r="C299">
+        <v>0.47319389414067753</v>
+      </c>
+      <c r="D299">
+        <v>0.91178910079410946</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>0.14410206358059119</v>
+      </c>
+      <c r="B300">
+        <v>0.70646828200489176</v>
+      </c>
+      <c r="C300">
+        <v>0.4043789951575098</v>
+      </c>
+      <c r="D300">
+        <v>0.92794896820970441</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>0.068541463354374874</v>
+      </c>
+      <c r="B301">
+        <v>0.85533467551374498</v>
+      </c>
+      <c r="C301">
+        <v>0.49618474224880427</v>
+      </c>
+      <c r="D301">
+        <v>0.96572926832281247</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>0.049223997605104125</v>
+      </c>
+      <c r="B302">
+        <v>0.85710235352963737</v>
+      </c>
+      <c r="C302">
+        <v>0.66342214522937903</v>
+      </c>
+      <c r="D302">
+        <v>0.97538800119744795</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>0.071223494815044114</v>
+      </c>
+      <c r="B303">
+        <v>0.79964815680987555</v>
+      </c>
+      <c r="C303">
+        <v>0.64278159695496329</v>
+      </c>
+      <c r="D303">
+        <v>0.96447595831398658</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>0.024285750500671787</v>
+      </c>
+      <c r="B304">
+        <v>0.83223187590071268</v>
+      </c>
+      <c r="C304">
+        <v>0.83754792661214494</v>
+      </c>
+      <c r="D304">
+        <v>0.98785712474966403</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>0.050264862676293945</v>
+      </c>
+      <c r="B305">
+        <v>0.89564266295702821</v>
+      </c>
+      <c r="C305">
+        <v>0.54283644262977482</v>
+      </c>
+      <c r="D305">
+        <v>0.97487131760277723</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>0.021123336311105582</v>
+      </c>
+      <c r="B306">
+        <v>0.88067540490644514</v>
+      </c>
+      <c r="C306">
+        <v>0.80909754273617918</v>
+      </c>
+      <c r="D306">
+        <v>0.98943833184444729</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>0.021926076562787326</v>
+      </c>
+      <c r="B307">
+        <v>0.90565992009069851</v>
+      </c>
+      <c r="C307">
+        <v>0.7597089533838397</v>
+      </c>
+      <c r="D307">
+        <v>0.98903696171860622</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>0.097137841106108958</v>
+      </c>
+      <c r="B308">
+        <v>0.81482267054050139</v>
+      </c>
+      <c r="C308">
+        <v>0.49602971589443012</v>
+      </c>
+      <c r="D308">
+        <v>0.95152335232211982</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>0.019524935183773066</v>
+      </c>
+      <c r="B309">
+        <v>0.88328866467719047</v>
+      </c>
+      <c r="C309">
+        <v>0.81854928106198566</v>
+      </c>
+      <c r="D309">
+        <v>0.99023753240811341</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>0.015559595959595959</v>
+      </c>
+      <c r="B310">
+        <v>0.89710616862113635</v>
+      </c>
+      <c r="C310">
+        <v>0.84140646853178247</v>
+      </c>
+      <c r="D310">
+        <v>0.992220202020202</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>0.030369655136418792</v>
+      </c>
+      <c r="B311">
+        <v>0.87899397144024327</v>
+      </c>
+      <c r="C311">
+        <v>0.74609683676969285</v>
+      </c>
+      <c r="D311">
+        <v>0.98481517243179051</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>0.037706913339824732</v>
+      </c>
+      <c r="B312">
+        <v>0.85344054019076909</v>
+      </c>
+      <c r="C312">
+        <v>0.73082006075707107</v>
+      </c>
+      <c r="D312">
+        <v>0.98115581675708252</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>0.01808801521306163</v>
+      </c>
+      <c r="B313">
+        <v>0.83840253955564803</v>
+      </c>
+      <c r="C313">
+        <v>0.87474293699938965</v>
+      </c>
+      <c r="D313">
+        <v>0.99095599239346921</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>0.025892316999395038</v>
+      </c>
+      <c r="B314">
+        <v>0.88010629339057034</v>
+      </c>
+      <c r="C314">
+        <v>0.76410502833141924</v>
+      </c>
+      <c r="D314">
+        <v>0.9870538415003024</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>0.024542464114832532</v>
+      </c>
+      <c r="B315">
+        <v>0.83238302819037102</v>
+      </c>
+      <c r="C315">
+        <v>0.83457245795511792</v>
+      </c>
+      <c r="D315">
+        <v>0.9877287679425838</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>0.021799389241249707</v>
+      </c>
+      <c r="B316">
+        <v>0.85123865354741934</v>
+      </c>
+      <c r="C316">
+        <v>0.83967017036815206</v>
+      </c>
+      <c r="D316">
+        <v>0.9891003053793751</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>0.04307083574599499</v>
+      </c>
+      <c r="B317">
+        <v>0.84759147928254053</v>
+      </c>
+      <c r="C317">
+        <v>0.70819596275675378</v>
+      </c>
+      <c r="D317">
+        <v>0.9784645821270026</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>0.031224471271671054</v>
+      </c>
+      <c r="B318">
+        <v>0.82874863658382503</v>
+      </c>
+      <c r="C318">
+        <v>0.80021154759285029</v>
+      </c>
+      <c r="D318">
+        <v>0.98439154639799098</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>0.026845740504465601</v>
+      </c>
+      <c r="B319">
+        <v>0.82259738891305367</v>
+      </c>
+      <c r="C319">
+        <v>0.82993598947176195</v>
+      </c>
+      <c r="D319">
+        <v>0.98657712974776723</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>0.11786259918190331</v>
+      </c>
+      <c r="B320">
+        <v>0.82803022788339942</v>
+      </c>
+      <c r="C320">
+        <v>0.36864844162694244</v>
+      </c>
+      <c r="D320">
+        <v>0.94128164375010281</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>0.13430273430273429</v>
+      </c>
+      <c r="B321">
+        <v>0.73623056769230177</v>
+      </c>
+      <c r="C321">
+        <v>0.53722880965120212</v>
+      </c>
+      <c r="D321">
+        <v>0.93385503385503388</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>0.16110077198786876</v>
+      </c>
+      <c r="B322">
+        <v>0.75212336332058882</v>
+      </c>
+      <c r="C322">
+        <v>0.40322476297641913</v>
+      </c>
+      <c r="D322">
+        <v>0.92027674386545355</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>0.072956718353667627</v>
+      </c>
+      <c r="B323">
+        <v>0.86025732493638485</v>
+      </c>
+      <c r="C323">
+        <v>0.47010301330367471</v>
+      </c>
+      <c r="D323">
+        <v>0.96352164082316605</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>0.10555917953178227</v>
+      </c>
+      <c r="B324">
+        <v>0.76698189658608307</v>
+      </c>
+      <c r="C324">
+        <v>0.56728020991314276</v>
+      </c>
+      <c r="D324">
+        <v>0.94761663163489651</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>0.11190123456790121</v>
+      </c>
+      <c r="B325">
+        <v>0.78257054958522676</v>
+      </c>
+      <c r="C325">
+        <v>0.53619527387007948</v>
+      </c>
+      <c r="D325">
+        <v>0.94449092229484399</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>0.090291803050351699</v>
+      </c>
+      <c r="B326">
+        <v>0.84118002178063733</v>
+      </c>
+      <c r="C326">
+        <v>0.42524472515991474</v>
+      </c>
+      <c r="D326">
+        <v>0.95485925719577092</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>0.14306470492160275</v>
+      </c>
+      <c r="B327">
+        <v>0.79762032336471045</v>
+      </c>
+      <c r="C327">
+        <v>0.35430280831331684</v>
+      </c>
+      <c r="D327">
+        <v>0.92873532320702679</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>0.1192444536025826</v>
+      </c>
+      <c r="B328">
+        <v>0.8110572823878569</v>
+      </c>
+      <c r="C328">
+        <v>0.41053736999266394</v>
+      </c>
+      <c r="D328">
+        <v>0.94045103830391275</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>0.084700015171758999</v>
+      </c>
+      <c r="B329">
+        <v>0.8306823867292138</v>
+      </c>
+      <c r="C329">
+        <v>0.52787724736350372</v>
+      </c>
+      <c r="D329">
+        <v>0.95771851003538433</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>0.062099693678641051</v>
+      </c>
+      <c r="B330">
+        <v>0.8281403853563668</v>
+      </c>
+      <c r="C330">
+        <v>0.62419539868111029</v>
+      </c>
+      <c r="D330">
+        <v>0.96895015316067945</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>0.1087746865083033</v>
+      </c>
+      <c r="B331">
+        <v>0.77814117164508578</v>
+      </c>
+      <c r="C331">
+        <v>0.52317493642304846</v>
+      </c>
+      <c r="D331">
+        <v>0.94578724671616798</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>0.15195768200324872</v>
+      </c>
+      <c r="B332">
+        <v>0.71723862886655054</v>
+      </c>
+      <c r="C332">
+        <v>0.48460219255729003</v>
+      </c>
+      <c r="D332">
+        <v>0.92549785878530888</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>0.10310618500273672</v>
+      </c>
+      <c r="B333">
+        <v>0.77981862573306948</v>
+      </c>
+      <c r="C333">
+        <v>0.56471460124315487</v>
+      </c>
+      <c r="D333">
+        <v>0.94858881185509536</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>0.15142512077294687</v>
+      </c>
+      <c r="B334">
+        <v>0.74593996386010131</v>
+      </c>
+      <c r="C334">
+        <v>0.49781723669163802</v>
+      </c>
+      <c r="D334">
+        <v>0.92567230273752021</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>0.053613807982740014</v>
+      </c>
+      <c r="B335">
+        <v>0.8391394950961113</v>
+      </c>
+      <c r="C335">
+        <v>0.66199842508472262</v>
+      </c>
+      <c r="D335">
+        <v>0.97319309600863002</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>0.15291014805490621</v>
+      </c>
+      <c r="B336">
+        <v>0.77312170494030941</v>
+      </c>
+      <c r="C336">
+        <v>0.39219232894974582</v>
+      </c>
+      <c r="D336">
+        <v>0.92396851085935783</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>0.11277023629964805</v>
+      </c>
+      <c r="B337">
+        <v>0.80631612652376761</v>
+      </c>
+      <c r="C337">
+        <v>0.42732837070706392</v>
+      </c>
+      <c r="D337">
+        <v>0.94363164069046424</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>0.21505115255115254</v>
+      </c>
+      <c r="B338">
+        <v>0.73021703734792887</v>
+      </c>
+      <c r="C338">
+        <v>0.36622661323866756</v>
+      </c>
+      <c r="D338">
+        <v>0.8955536490258712</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>0.2667371833328071</v>
+      </c>
+      <c r="B339">
+        <v>0.70236196931407102</v>
+      </c>
+      <c r="C339">
+        <v>0.3347860122405461</v>
+      </c>
+      <c r="D339">
+        <v>0.8740676714414517</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>0.11530214424951268</v>
+      </c>
+      <c r="B340">
+        <v>0.79408934478108428</v>
+      </c>
+      <c r="C340">
+        <v>0.50898880460611906</v>
+      </c>
+      <c r="D340">
+        <v>0.94264596676877388</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>0.23569829683698296</v>
+      </c>
+      <c r="B341">
+        <v>0.64649831226373533</v>
+      </c>
+      <c r="C341">
+        <v>0.31543189737214439</v>
+      </c>
+      <c r="D341">
+        <v>0.88272830494728294</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>0.23962548034890105</v>
+      </c>
+      <c r="B342">
+        <v>0.6384199941905252</v>
+      </c>
+      <c r="C342">
+        <v>0.31656474915732113</v>
+      </c>
+      <c r="D342">
+        <v>0.88100054897017255</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>0.20341678427522447</v>
+      </c>
+      <c r="B343">
+        <v>0.66140116717053787</v>
+      </c>
+      <c r="C343">
+        <v>0.36915450881442585</v>
+      </c>
+      <c r="D343">
+        <v>0.89853705180912646</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>0.19470988292011021</v>
+      </c>
+      <c r="B344">
+        <v>0.68877298839600265</v>
+      </c>
+      <c r="C344">
+        <v>0.33815445420951368</v>
+      </c>
+      <c r="D344">
+        <v>0.90297506313131304</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>0.14764957264957265</v>
+      </c>
+      <c r="B345">
+        <v>0.74785733824847445</v>
+      </c>
+      <c r="C345">
+        <v>0.36789410272687789</v>
+      </c>
+      <c r="D345">
+        <v>0.92630109984761155</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>0.059231120386070167</v>
+      </c>
+      <c r="B346">
+        <v>0.74662780590227817</v>
+      </c>
+      <c r="C346">
+        <v>0.72991822351755076</v>
+      </c>
+      <c r="D346">
+        <v>0.97038443980696487</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>0.06289637751263033</v>
+      </c>
+      <c r="B347">
+        <v>0.73912857899901796</v>
+      </c>
+      <c r="C347">
+        <v>0.71599979088338428</v>
+      </c>
+      <c r="D347">
+        <v>0.96855778303295226</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>0.061849320847042935</v>
+      </c>
+      <c r="B348">
+        <v>0.76516183390304393</v>
+      </c>
+      <c r="C348">
+        <v>0.69642823190626424</v>
+      </c>
+      <c r="D348">
+        <v>0.96907533957647851</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>0.054143251538041115</v>
+      </c>
+      <c r="B349">
+        <v>0.7900728669152467</v>
+      </c>
+      <c r="C349">
+        <v>0.70094291492702343</v>
+      </c>
+      <c r="D349">
+        <v>0.97292837423097944</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>0.17269008041638337</v>
+      </c>
+      <c r="B350">
+        <v>0.77635649236992899</v>
+      </c>
+      <c r="C350">
+        <v>0.32223710139072448</v>
+      </c>
+      <c r="D350">
+        <v>0.91391806490099692</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>0.08013565891472868</v>
+      </c>
+      <c r="B351">
+        <v>0.84098243075042811</v>
+      </c>
+      <c r="C351">
+        <v>0.46478972590275636</v>
+      </c>
+      <c r="D351">
+        <v>0.95993217054263558</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>0.057221391916890491</v>
+      </c>
+      <c r="B352">
+        <v>0.88563151123014117</v>
+      </c>
+      <c r="C352">
+        <v>0.4684770232917978</v>
+      </c>
+      <c r="D352">
+        <v>0.97138930404155466</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>0.16480667128895307</v>
+      </c>
+      <c r="B353">
+        <v>0.71028933418970774</v>
+      </c>
+      <c r="C353">
+        <v>0.43237903287393453</v>
+      </c>
+      <c r="D353">
+        <v>0.91804622919575363</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>0.10371189435703176</v>
+      </c>
+      <c r="B354">
+        <v>0.78234365656181415</v>
+      </c>
+      <c r="C354">
+        <v>0.48228912979469951</v>
+      </c>
+      <c r="D354">
+        <v>0.94817579650184647</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>0.090200802775995029</v>
+      </c>
+      <c r="B355">
+        <v>0.80240229329869406</v>
+      </c>
+      <c r="C355">
+        <v>0.49735430120856766</v>
+      </c>
+      <c r="D355">
+        <v>0.95489959861200258</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>0.086051187342004259</v>
+      </c>
+      <c r="B356">
+        <v>0.79803164930803361</v>
+      </c>
+      <c r="C356">
+        <v>0.51812898466755186</v>
+      </c>
+      <c r="D356">
+        <v>0.95697440632899788</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>0.083286739353275546</v>
+      </c>
+      <c r="B357">
+        <v>0.79180583306470242</v>
+      </c>
+      <c r="C357">
+        <v>0.53857979240436005</v>
+      </c>
+      <c r="D357">
+        <v>0.95835663032336216</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>0.087874506777530226</v>
+      </c>
+      <c r="B358">
+        <v>0.78310691420077705</v>
+      </c>
+      <c r="C358">
+        <v>0.53617879030640925</v>
+      </c>
+      <c r="D358">
+        <v>0.95606689569615422</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>0.10769800629045254</v>
+      </c>
+      <c r="B359">
+        <v>0.78113146697572455</v>
+      </c>
+      <c r="C359">
+        <v>0.46063953991467471</v>
+      </c>
+      <c r="D359">
+        <v>0.94615966138996499</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>0.10332385133881641</v>
+      </c>
+      <c r="B360">
+        <v>0.77922835173431015</v>
+      </c>
+      <c r="C360">
+        <v>0.47910720358684644</v>
+      </c>
+      <c r="D360">
+        <v>0.94835456475583868</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>0.054688391038696535</v>
+      </c>
+      <c r="B361">
+        <v>0.78609570545807472</v>
+      </c>
+      <c r="C361">
+        <v>0.70389076275608597</v>
+      </c>
+      <c r="D361">
+        <v>0.9726558044806517</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>0.12436111774540244</v>
+      </c>
+      <c r="B362">
+        <v>0.79564329376076492</v>
+      </c>
+      <c r="C362">
+        <v>0.3777189446145276</v>
+      </c>
+      <c r="D362">
+        <v>0.93781944112729876</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>0.18856168198273462</v>
+      </c>
+      <c r="B363">
+        <v>0.7457528911179887</v>
+      </c>
+      <c r="C363">
+        <v>0.31590327069603552</v>
+      </c>
+      <c r="D363">
+        <v>0.90600536835916956</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>0.10520112161592099</v>
+      </c>
+      <c r="B364">
+        <v>0.81182595958123638</v>
+      </c>
+      <c r="C364">
+        <v>0.40431516989414273</v>
+      </c>
+      <c r="D364">
+        <v>0.94742425370356587</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>0.1205</v>
+      </c>
+      <c r="B365">
+        <v>0.77988761549568653</v>
+      </c>
+      <c r="C365">
+        <v>0.39216358694937548</v>
+      </c>
+      <c r="D365">
+        <v>0.93975000000000009</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>0.081716180932891111</v>
+      </c>
+      <c r="B366">
+        <v>0.78191419435177834</v>
+      </c>
+      <c r="C366">
+        <v>0.56312642885965047</v>
+      </c>
+      <c r="D366">
+        <v>0.95914190953355449</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>0.092119951288816726</v>
+      </c>
+      <c r="B367">
+        <v>0.82556864353767334</v>
+      </c>
+      <c r="C367">
+        <v>0.41530606176980134</v>
+      </c>
+      <c r="D367">
+        <v>0.95394002435559155</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>0.087289282638119844</v>
+      </c>
+      <c r="B368">
+        <v>0.85047524708855859</v>
+      </c>
+      <c r="C368">
+        <v>0.41755362631089815</v>
+      </c>
+      <c r="D368">
+        <v>0.95635535868094013</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>0.081105569543114653</v>
+      </c>
+      <c r="B369">
+        <v>0.8294622370180007</v>
+      </c>
+      <c r="C369">
+        <v>0.49379510769507651</v>
+      </c>
+      <c r="D369">
+        <v>0.95944721522844278</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>0.10172701105893048</v>
+      </c>
+      <c r="B370">
+        <v>0.80746874622126041</v>
+      </c>
+      <c r="C370">
+        <v>0.4414148150345103</v>
+      </c>
+      <c r="D370">
+        <v>0.94913649447053472</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>0.083485663550425665</v>
+      </c>
+      <c r="B371">
+        <v>0.83480023085706612</v>
+      </c>
+      <c r="C371">
+        <v>0.44757834663491664</v>
+      </c>
+      <c r="D371">
+        <v>0.95825716822478713</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>0.088508208422555329</v>
+      </c>
+      <c r="B372">
+        <v>0.80045464091209539</v>
+      </c>
+      <c r="C372">
+        <v>0.50439963832934243</v>
+      </c>
+      <c r="D372">
+        <v>0.95574589578872238</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>0.094292803970223327</v>
+      </c>
+      <c r="B373">
+        <v>0.78211518678194325</v>
+      </c>
+      <c r="C373">
+        <v>0.54988689226428544</v>
+      </c>
+      <c r="D373">
+        <v>0.95286118636222217</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>0.13704472346165822</v>
+      </c>
+      <c r="B374">
+        <v>0.80028606931856949</v>
+      </c>
+      <c r="C374">
+        <v>0.37029428108556872</v>
+      </c>
+      <c r="D374">
+        <v>0.93157448721939762</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>0.068000937124386276</v>
+      </c>
+      <c r="B375">
+        <v>0.8252750521849278</v>
+      </c>
+      <c r="C375">
+        <v>0.61590519808298294</v>
+      </c>
+      <c r="D375">
+        <v>0.96599953143780692</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>0.11863932898415658</v>
+      </c>
+      <c r="B376">
+        <v>0.81217345172784505</v>
+      </c>
+      <c r="C376">
+        <v>0.40625621631315206</v>
+      </c>
+      <c r="D376">
+        <v>0.94069644357000681</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>0.16045677933106584</v>
+      </c>
+      <c r="B377">
+        <v>0.78583321031343589</v>
+      </c>
+      <c r="C377">
+        <v>0.32730122875553369</v>
+      </c>
+      <c r="D377">
+        <v>0.91998464669022328</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>0.091723162131896741</v>
+      </c>
+      <c r="B378">
+        <v>0.85167142303478749</v>
+      </c>
+      <c r="C378">
+        <v>0.40953720313020314</v>
+      </c>
+      <c r="D378">
+        <v>0.9541384189340516</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>0.11790575528924396</v>
+      </c>
+      <c r="B379">
+        <v>0.81476482668067773</v>
+      </c>
+      <c r="C379">
+        <v>0.38626140606560522</v>
+      </c>
+      <c r="D379">
+        <v>0.94104958820338336</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>0.057682516219101587</v>
+      </c>
+      <c r="B380">
+        <v>0.87853614635617661</v>
+      </c>
+      <c r="C380">
+        <v>0.49321787620849022</v>
+      </c>
+      <c r="D380">
+        <v>0.97115874189044926</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>0.054688391038696535</v>
+      </c>
+      <c r="B381">
+        <v>0.78609570545807472</v>
+      </c>
+      <c r="C381">
+        <v>0.70389076275608597</v>
+      </c>
+      <c r="D381">
+        <v>0.9726558044806517</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>0.12436111774540244</v>
+      </c>
+      <c r="B382">
+        <v>0.79564329376076492</v>
+      </c>
+      <c r="C382">
+        <v>0.3777189446145276</v>
+      </c>
+      <c r="D382">
+        <v>0.93781944112729876</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>0.18856168198273462</v>
+      </c>
+      <c r="B383">
+        <v>0.7457528911179887</v>
+      </c>
+      <c r="C383">
+        <v>0.31590327069603552</v>
+      </c>
+      <c r="D383">
+        <v>0.90600536835916956</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>0.10520112161592099</v>
+      </c>
+      <c r="B384">
+        <v>0.81182595958123638</v>
+      </c>
+      <c r="C384">
+        <v>0.40431516989414273</v>
+      </c>
+      <c r="D384">
+        <v>0.94742425370356587</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>0.1205</v>
+      </c>
+      <c r="B385">
+        <v>0.77988761549568653</v>
+      </c>
+      <c r="C385">
+        <v>0.39216358694937548</v>
+      </c>
+      <c r="D385">
+        <v>0.93975000000000009</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>0.081716180932891111</v>
+      </c>
+      <c r="B386">
+        <v>0.78191419435177834</v>
+      </c>
+      <c r="C386">
+        <v>0.56312642885965047</v>
+      </c>
+      <c r="D386">
+        <v>0.95914190953355449</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>0.092119951288816726</v>
+      </c>
+      <c r="B387">
+        <v>0.82556864353767334</v>
+      </c>
+      <c r="C387">
+        <v>0.41530606176980134</v>
+      </c>
+      <c r="D387">
+        <v>0.95394002435559155</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>0.087289282638119844</v>
+      </c>
+      <c r="B388">
+        <v>0.85047524708855859</v>
+      </c>
+      <c r="C388">
+        <v>0.41755362631089815</v>
+      </c>
+      <c r="D388">
+        <v>0.95635535868094013</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>0.081105569543114653</v>
+      </c>
+      <c r="B389">
+        <v>0.8294622370180007</v>
+      </c>
+      <c r="C389">
+        <v>0.49379510769507651</v>
+      </c>
+      <c r="D389">
+        <v>0.95944721522844278</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>0.10172701105893048</v>
+      </c>
+      <c r="B390">
+        <v>0.80746874622126041</v>
+      </c>
+      <c r="C390">
+        <v>0.4414148150345103</v>
+      </c>
+      <c r="D390">
+        <v>0.94913649447053472</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>0.083485663550425665</v>
+      </c>
+      <c r="B391">
+        <v>0.83480023085706612</v>
+      </c>
+      <c r="C391">
+        <v>0.44757834663491664</v>
+      </c>
+      <c r="D391">
+        <v>0.95825716822478713</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>0.088508208422555329</v>
+      </c>
+      <c r="B392">
+        <v>0.80045464091209539</v>
+      </c>
+      <c r="C392">
+        <v>0.50439963832934243</v>
+      </c>
+      <c r="D392">
+        <v>0.95574589578872238</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>0.094292803970223327</v>
+      </c>
+      <c r="B393">
+        <v>0.78211518678194325</v>
+      </c>
+      <c r="C393">
+        <v>0.54988689226428544</v>
+      </c>
+      <c r="D393">
+        <v>0.95286118636222217</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>0.13704472346165822</v>
+      </c>
+      <c r="B394">
+        <v>0.80028606931856949</v>
+      </c>
+      <c r="C394">
+        <v>0.37029428108556872</v>
+      </c>
+      <c r="D394">
+        <v>0.93157448721939762</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>0.068000937124386276</v>
+      </c>
+      <c r="B395">
+        <v>0.8252750521849278</v>
+      </c>
+      <c r="C395">
+        <v>0.61590519808298294</v>
+      </c>
+      <c r="D395">
+        <v>0.96599953143780692</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>0.11863932898415658</v>
+      </c>
+      <c r="B396">
+        <v>0.81217345172784505</v>
+      </c>
+      <c r="C396">
+        <v>0.40625621631315206</v>
+      </c>
+      <c r="D396">
+        <v>0.94069644357000681</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>0.16045677933106584</v>
+      </c>
+      <c r="B397">
+        <v>0.78583321031343589</v>
+      </c>
+      <c r="C397">
+        <v>0.32730122875553369</v>
+      </c>
+      <c r="D397">
+        <v>0.91998464669022328</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>0.091723162131896741</v>
+      </c>
+      <c r="B398">
+        <v>0.85167142303478749</v>
+      </c>
+      <c r="C398">
+        <v>0.40953720313020314</v>
+      </c>
+      <c r="D398">
+        <v>0.9541384189340516</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>0.11790575528924396</v>
+      </c>
+      <c r="B399">
+        <v>0.81476482668067773</v>
+      </c>
+      <c r="C399">
+        <v>0.38626140606560522</v>
+      </c>
+      <c r="D399">
+        <v>0.94104958820338336</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>0.057682516219101587</v>
+      </c>
+      <c r="B400">
+        <v>0.87853614635617661</v>
+      </c>
+      <c r="C400">
+        <v>0.49321787620849022</v>
+      </c>
+      <c r="D400">
+        <v>0.97115874189044926</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>